--- a/ACO_SMART_Survey_2022.xlsx
+++ b/ACO_SMART_Survey_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef-my.sharepoint.com/personal/rojohnston_unicef_org1/Documents/1 UNICEF Work/1 Afghanistan/Surveys/UrbanSMART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB600E9D-3F34-4F47-9E4F-449300B8EA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{BB600E9D-3F34-4F47-9E4F-449300B8EA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ABF401B7-2C71-4CE1-BA52-F6743077993A}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="790">
   <si>
     <t>type</t>
   </si>
@@ -1580,9 +1580,6 @@
     <t>measles</t>
   </si>
   <si>
-    <t>Has the child  ${child_name}  received a measles vaccination?</t>
-  </si>
-  <si>
     <t>آیا کودک ${child_name} واکسن سرخکان دریافت کرده است؟</t>
   </si>
   <si>
@@ -1841,42 +1838,6 @@
     <t>Please remeasure woman's MUAC</t>
   </si>
   <si>
-    <t>wom_hgt</t>
-  </si>
-  <si>
-    <t>Woman's HEIGHT in CM of ${wom_name}</t>
-  </si>
-  <si>
-    <t>قد زن در سانتی متر ${wom_name}</t>
-  </si>
-  <si>
-    <t>د ښځې لوړوالی د ${wom_name} په سانتی متر کې</t>
-  </si>
-  <si>
-    <t>(. &gt;= 110 and . &lt;210)</t>
-  </si>
-  <si>
-    <t>Please remeasure woman's HEIGHT</t>
-  </si>
-  <si>
-    <t>wom_wgt</t>
-  </si>
-  <si>
-    <t>Woman's WEIGHT in KG of ${wom_name}</t>
-  </si>
-  <si>
-    <t>وزن زن به کیلوگرم ${wom_name}</t>
-  </si>
-  <si>
-    <t>د ښځې وزن ${wom_name}  کیلوګرام کې</t>
-  </si>
-  <si>
-    <t>(. &gt;= 25 and . &lt;200)</t>
-  </si>
-  <si>
-    <t>Please remeasure woman's WEIGHT</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -1892,9 +1853,6 @@
     <t>مهرباني وکړئ د GPS لوستل واخلئ</t>
   </si>
   <si>
-    <t>Push the 'Save GeoPoint' button when the accuracy of the GPS measure is less than 25 m. Avoid taking it inside house or under trees (to make it faster).</t>
-  </si>
-  <si>
     <t>هتگامی که دقت اندازه گیری GPS کمتر از 25 متر باشد، دکمه "Save GeoPoint" را فشار دهید. از ګرفتن آن در داخل خانه یا زیر درختان خودداری کنید (برای سرعت بخشیدن به آن).</t>
   </si>
   <si>
@@ -2610,6 +2568,12 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Has the child  ${child_name} received a measles vaccination?</t>
+  </si>
+  <si>
+    <t>Push the 'Save GeoPoint' button when standing outside of selected household. Avoid taking it inside house or under trees (to make it faster).</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +2960,7 @@
   <dimension ref="A1:R186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD164"/>
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5411,22 +5375,22 @@
         <v>457</v>
       </c>
       <c r="C143" t="s">
+        <v>788</v>
+      </c>
+      <c r="D143" t="s">
         <v>458</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>459</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>460</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>461</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>462</v>
-      </c>
-      <c r="H143" t="s">
-        <v>463</v>
       </c>
       <c r="M143" t="s">
         <v>456</v>
@@ -5437,19 +5401,19 @@
         <v>106</v>
       </c>
       <c r="B144" t="s">
+        <v>463</v>
+      </c>
+      <c r="C144" t="s">
         <v>464</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>465</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>466</v>
       </c>
-      <c r="E144" t="s">
+      <c r="M144" t="s">
         <v>467</v>
-      </c>
-      <c r="M144" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5457,19 +5421,19 @@
         <v>106</v>
       </c>
       <c r="B145" t="s">
+        <v>468</v>
+      </c>
+      <c r="C145" t="s">
         <v>469</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>470</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>471</v>
       </c>
-      <c r="E145" t="s">
-        <v>472</v>
-      </c>
       <c r="M145" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5477,19 +5441,19 @@
         <v>106</v>
       </c>
       <c r="B146" t="s">
+        <v>472</v>
+      </c>
+      <c r="C146" t="s">
         <v>473</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>474</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>475</v>
       </c>
-      <c r="E146" t="s">
-        <v>476</v>
-      </c>
       <c r="M146" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5497,13 +5461,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
+        <v>476</v>
+      </c>
+      <c r="I147" t="s">
         <v>477</v>
       </c>
-      <c r="I147" t="s">
+      <c r="M147" t="s">
         <v>478</v>
-      </c>
-      <c r="M147" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5511,13 +5475,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
+        <v>479</v>
+      </c>
+      <c r="I148" t="s">
+        <v>477</v>
+      </c>
+      <c r="M148" t="s">
         <v>480</v>
-      </c>
-      <c r="I148" t="s">
-        <v>478</v>
-      </c>
-      <c r="M148" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5525,28 +5489,28 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
+        <v>481</v>
+      </c>
+      <c r="C149" t="s">
         <v>482</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>483</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>484</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>485</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>486</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>487</v>
       </c>
-      <c r="H149" t="s">
+      <c r="M149" t="s">
         <v>488</v>
-      </c>
-      <c r="M149" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5554,19 +5518,19 @@
         <v>106</v>
       </c>
       <c r="B150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" t="s">
         <v>490</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>491</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>492</v>
       </c>
-      <c r="E150" t="s">
-        <v>493</v>
-      </c>
       <c r="M150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5574,28 +5538,28 @@
         <v>59</v>
       </c>
       <c r="B151" t="s">
+        <v>493</v>
+      </c>
+      <c r="C151" t="s">
         <v>494</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>495</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>496</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>497</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>498</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>499</v>
       </c>
-      <c r="H151" t="s">
+      <c r="M151" t="s">
         <v>500</v>
-      </c>
-      <c r="M151" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5603,19 +5567,19 @@
         <v>106</v>
       </c>
       <c r="B152" t="s">
+        <v>501</v>
+      </c>
+      <c r="C152" t="s">
         <v>502</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>503</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>504</v>
       </c>
-      <c r="E152" t="s">
-        <v>505</v>
-      </c>
       <c r="M152" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5623,13 +5587,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
+        <v>505</v>
+      </c>
+      <c r="I153" t="s">
+        <v>477</v>
+      </c>
+      <c r="M153" t="s">
         <v>506</v>
-      </c>
-      <c r="I153" t="s">
-        <v>478</v>
-      </c>
-      <c r="M153" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5637,13 +5601,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
+        <v>507</v>
+      </c>
+      <c r="I154" t="s">
+        <v>477</v>
+      </c>
+      <c r="M154" t="s">
         <v>508</v>
-      </c>
-      <c r="I154" t="s">
-        <v>478</v>
-      </c>
-      <c r="M154" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5651,13 +5615,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
+        <v>509</v>
+      </c>
+      <c r="I155" t="s">
+        <v>477</v>
+      </c>
+      <c r="M155" t="s">
         <v>510</v>
-      </c>
-      <c r="I155" t="s">
-        <v>478</v>
-      </c>
-      <c r="M155" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5665,13 +5629,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
+        <v>511</v>
+      </c>
+      <c r="I156" t="s">
+        <v>477</v>
+      </c>
+      <c r="M156" t="s">
         <v>512</v>
-      </c>
-      <c r="I156" t="s">
-        <v>478</v>
-      </c>
-      <c r="M156" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5687,13 +5651,13 @@
         <v>73</v>
       </c>
       <c r="B158" t="s">
+        <v>513</v>
+      </c>
+      <c r="C158" t="s">
         <v>514</v>
       </c>
-      <c r="C158" t="s">
+      <c r="R158" t="s">
         <v>515</v>
-      </c>
-      <c r="R158" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -5701,7 +5665,7 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I159" t="s">
         <v>133</v>
@@ -5712,10 +5676,10 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
+        <v>517</v>
+      </c>
+      <c r="I160" t="s">
         <v>518</v>
-      </c>
-      <c r="I160" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5723,10 +5687,10 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
+        <v>519</v>
+      </c>
+      <c r="I161" t="s">
         <v>520</v>
-      </c>
-      <c r="I161" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5734,10 +5698,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
+        <v>521</v>
+      </c>
+      <c r="I162" t="s">
         <v>522</v>
-      </c>
-      <c r="I162" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5745,19 +5709,19 @@
         <v>59</v>
       </c>
       <c r="B163" t="s">
+        <v>523</v>
+      </c>
+      <c r="C163" t="s">
         <v>524</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>525</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>526</v>
       </c>
-      <c r="E163" t="s">
+      <c r="M163" t="s">
         <v>527</v>
-      </c>
-      <c r="M163" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5765,19 +5729,19 @@
         <v>106</v>
       </c>
       <c r="B165" t="s">
+        <v>528</v>
+      </c>
+      <c r="C165" t="s">
         <v>529</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>530</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>531</v>
       </c>
-      <c r="E165" t="s">
-        <v>532</v>
-      </c>
       <c r="M165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5785,115 +5749,51 @@
         <v>106</v>
       </c>
       <c r="B166" t="s">
+        <v>532</v>
+      </c>
+      <c r="C166" t="s">
         <v>533</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>534</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>535</v>
       </c>
-      <c r="E166" t="s">
-        <v>536</v>
-      </c>
       <c r="M166" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
+        <v>536</v>
+      </c>
+      <c r="B167" t="s">
         <v>537</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>538</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>539</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>540</v>
       </c>
-      <c r="E167" t="s">
+      <c r="L167" t="s">
         <v>541</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>542</v>
       </c>
-      <c r="M167" t="s">
+      <c r="N167" t="s">
         <v>543</v>
       </c>
-      <c r="N167" t="s">
-        <v>544</v>
-      </c>
       <c r="O167" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P167" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" t="s">
-        <v>537</v>
-      </c>
-      <c r="B168" t="s">
-        <v>545</v>
-      </c>
-      <c r="C168" t="s">
-        <v>546</v>
-      </c>
-      <c r="D168" t="s">
-        <v>547</v>
-      </c>
-      <c r="E168" t="s">
-        <v>548</v>
-      </c>
-      <c r="L168" t="s">
-        <v>549</v>
-      </c>
-      <c r="M168" t="s">
         <v>543</v>
-      </c>
-      <c r="N168" t="s">
-        <v>550</v>
-      </c>
-      <c r="O168" t="s">
-        <v>550</v>
-      </c>
-      <c r="P168" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" t="s">
-        <v>537</v>
-      </c>
-      <c r="B169" t="s">
-        <v>551</v>
-      </c>
-      <c r="C169" t="s">
-        <v>552</v>
-      </c>
-      <c r="D169" t="s">
-        <v>553</v>
-      </c>
-      <c r="E169" t="s">
-        <v>554</v>
-      </c>
-      <c r="L169" t="s">
-        <v>555</v>
-      </c>
-      <c r="M169" t="s">
-        <v>543</v>
-      </c>
-      <c r="N169" t="s">
-        <v>556</v>
-      </c>
-      <c r="O169" t="s">
-        <v>556</v>
-      </c>
-      <c r="P169" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5901,123 +5801,123 @@
         <v>103</v>
       </c>
       <c r="B170" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B171" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>562</v>
+        <v>789</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B172" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C172" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D172" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="E172" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F172" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G172" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H172" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="J172" t="s">
         <v>29</v>
       </c>
       <c r="M172" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B173" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C173" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D173" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="E173" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F173" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G173" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H173" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="M173" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B174" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="C174" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D174" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="E174" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G174" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H174" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="J174" t="s">
         <v>29</v>
       </c>
       <c r="M174" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -6025,19 +5925,19 @@
         <v>59</v>
       </c>
       <c r="B175" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="C175" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D175" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="E175" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="M175" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -6045,16 +5945,16 @@
         <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C176" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="D176" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E176" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6070,10 +5970,10 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="I178" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6081,10 +5981,10 @@
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="I180" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6092,10 +5992,10 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="I181" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6103,10 +6003,10 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="I182" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6114,10 +6014,10 @@
         <v>21</v>
       </c>
       <c r="B183" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="I183" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6125,10 +6025,10 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I184" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6136,10 +6036,10 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I185" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6147,13 +6047,13 @@
         <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="I186" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="Q186" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -6171,7 +6071,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6188,53 +6088,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E2" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B4" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="E4" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6242,16 +6142,16 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D5" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E5" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6259,16 +6159,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6276,985 +6176,985 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="D7" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D8" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="E8" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C9" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="D9" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E9" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B10" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C10" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="E10" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B11" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E11" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B12" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C12" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" t="s">
         <v>626</v>
       </c>
-      <c r="B13" t="s">
-        <v>639</v>
-      </c>
-      <c r="C13" t="s">
-        <v>640</v>
-      </c>
       <c r="D13" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E13" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B14" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="C14" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="D14" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E14" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B15" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="C15" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="D15" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="E15" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B16" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="C16" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="D16" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E16" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B17" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="C17" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D17" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B18" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C18" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="D18" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="E18" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B19" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C19" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="D19" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E19" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B20" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="C20" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D20" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="E20" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B21" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="C21" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="D21" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="E21" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B22" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="D22" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="E22" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B23" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="C23" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="D23" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="E23" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B24" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C24" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="D24" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E24" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B25" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="D25" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E25" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B26" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="C26" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D26" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="E26" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B27" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="C27" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="D27" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="E27" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B28" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E28" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B29" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="C29" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="D29" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="E29" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B30" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="C30" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E30" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B31" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="C31" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D31" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="E31" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B32" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="C32" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="D32" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E32" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B33" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="C33" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="D33" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E33" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B34" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="C34" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="D34" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E34" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B35" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C35" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D35" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="E35" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B36" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="C36" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="D36" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="E36" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B37" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="C37" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D37" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E37" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B38" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C38" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="D38" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E38" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B39" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C39" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D39" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="E39" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B40" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C40" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D40" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="E40" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B41" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C41" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D41" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="E41" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="B42" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C42" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D42" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E42" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="B43" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C43" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D43" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="E43" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B44" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="D44" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="E44" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B45" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C45" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="D45" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="E45" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B46" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C46" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="D46" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="E46" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B47" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C47" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D47" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="E47" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C48" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="D48" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="E48" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B49" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C49" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D49" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="E49" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B50" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C50" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="D50" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="E50" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B51" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="C51" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="D51" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="E51" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C52" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D52" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E52" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B53" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C53" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="D53" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E53" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B54" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C54" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D54" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="E54" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C55" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D55" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E55" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C56" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D56" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="E56" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B57" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C57" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="D57" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="E57" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="B58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C58" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D58" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E58" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="B59" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C59" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D59" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="E59" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="B60" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="C60" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="D60" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="E60" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="B61" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C61" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="D61" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="E61" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="B62" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C62" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D62" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E62" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="B63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C63" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D63" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E63" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="B64" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C64" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D64" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="E64" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7272,36 +7172,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="B1" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="C1" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D1" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="E1" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="B2" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="D2" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="E2" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>

--- a/ACO_SMART_Survey_2022.xlsx
+++ b/ACO_SMART_Survey_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef-my.sharepoint.com/personal/rojohnston_unicef_org1/Documents/1 UNICEF Work/1 Afghanistan/Surveys/UrbanSMART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BB600E9D-3F34-4F47-9E4F-449300B8EA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ABF401B7-2C71-4CE1-BA52-F6743077993A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A247343-0984-495B-97DD-5B0D24FB3B55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -33,21 +33,21 @@
     <t>label::English</t>
   </si>
   <si>
-    <t>label::Dari</t>
-  </si>
-  <si>
     <t>label::Pashtun</t>
   </si>
   <si>
+    <t>label::Dari (dari)</t>
+  </si>
+  <si>
     <t>hint::English</t>
   </si>
   <si>
-    <t>hint::Dari</t>
-  </si>
-  <si>
     <t>hint::Pashtun</t>
   </si>
   <si>
+    <t>hint::Dari (dari)</t>
+  </si>
+  <si>
     <t>calculation</t>
   </si>
   <si>
@@ -66,18 +66,18 @@
     <t>constraint_message::English</t>
   </si>
   <si>
-    <t>constraint_message::Dari</t>
-  </si>
-  <si>
     <t>constraint_message::Pashtun</t>
   </si>
   <si>
+    <t>constraint_message::Dari (dari)</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
     <t>$given_name</t>
   </si>
   <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
     <t>deviceid</t>
   </si>
   <si>
@@ -105,12 +105,12 @@
     <t>Province</t>
   </si>
   <si>
+    <t xml:space="preserve">ولایت </t>
+  </si>
+  <si>
     <t>ولایت</t>
   </si>
   <si>
-    <t>سیمه / ولایت / څانګه</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -138,45 +138,45 @@
     <t>integer</t>
   </si>
   <si>
+    <t>CLUSTER</t>
+  </si>
+  <si>
+    <t>Cluster number</t>
+  </si>
+  <si>
+    <t>د کلستر شمیره</t>
+  </si>
+  <si>
+    <t>نمبر کلستر</t>
+  </si>
+  <si>
+    <t>.&gt;=1 and .&lt;=999</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>Household number</t>
+  </si>
+  <si>
+    <t>د کورنۍ شمیره</t>
+  </si>
+  <si>
+    <t>نمبر خانواده</t>
+  </si>
+  <si>
     <t>TEAM</t>
   </si>
   <si>
     <t>Team number</t>
   </si>
   <si>
+    <t>د ټیم شمیره</t>
+  </si>
+  <si>
     <t>نمبر تیم</t>
   </si>
   <si>
-    <t>د ټیم شمیره</t>
-  </si>
-  <si>
-    <t>.&gt;=1 and .&lt;=999</t>
-  </si>
-  <si>
-    <t>CLUSTER</t>
-  </si>
-  <si>
-    <t>Cluster number</t>
-  </si>
-  <si>
-    <t>نمبر کلستر</t>
-  </si>
-  <si>
-    <t>د کلستر شمیره</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>Household number</t>
-  </si>
-  <si>
-    <t>نمبر خانواده</t>
-  </si>
-  <si>
-    <t>د کورنۍ شمیره</t>
-  </si>
-  <si>
     <t>end_group</t>
   </si>
   <si>
@@ -195,10 +195,10 @@
     <t>Hello my name is (NAME).   I am with  (NAME organization/govt agency). Please let me introduce you to the other team members (NAME(S)).   We are here today to collect information about nutrition.  We would like to ask a few questions and take measures of children and/or pregnant/lactating women in the household  to determine nutrition conditions in the area.  It is not currently known what actions will be taken when the survey is complete. All information will be kept completely confidential.  Do you have any questions? May I begin?</t>
   </si>
   <si>
-    <t>سلام اسم من است ________. من با ________ [سازمان/سازمان دولتی] هستم. لطفا اجازه دهید شما را به سایر اعضای تیم معرفی کنم: _________ و _______. ما امروز اینجا هستیم تا اطلاعات خانوار مربوط به تغذیه و ________ را جمع آوری کنیم. اگر کودک زیر 5 سال در خانواده وجود دارد، مایلیم اندازه گیری هایی (وزن، قد، MUAC، oedema / توضیح دهید) برای کمک به تعیین وضعیت کلی تغذیه زیر 5 سال در . . لطفاً توجه داشته باشید که در حال حاضر مشخص نیست که پس از نهایی شدن نتایج نظرسنجی چه اقداماتی (در صورت وجود) انجام خواهد شد. تمامی اطلاعات کاملاً محرمانه خواهد بود. آیا سوالی دارید؟ می توانم شروع کنم؟</t>
-  </si>
-  <si>
-    <t>سلام زما نوم دی ________. زه د ________ [سازمان/حکومتي ادارې] سره یم. مهرباني وکړئ اجازه راکړئ تاسو د ټیم نورو غړو ته معرفي کړم: _________ او _______. موږ نن ورځ دلته یو ترڅو د تغذیې او ________ په اړه د کورنۍ معلومات راټول کړو. که چیرې په کورنۍ کې د 5 کلونو څخه کم ماشومان شتون ولري موږ غواړو یو څه اندازه (وزن، قد، MUAC، اذیما / تشریح) په پام کې ونیسو ترڅو د ، د  کلونو څخه کم عمره تغذیه حالت معلومولو کې مرسته وکړي. . مهرباني وکړئ په یاد ولرئ چې اوس مهال معلومه نه ده چې د سروې د پایلو له پای ته رسیدو وروسته به کوم اقدامات (که کوم وي) ترسره شي. ټول معلومات به په بشپړه توګه محرم وساتل شي. ایا تاسو کومه پوښتنه لرئ؟ ایا زه پیل کولی شم؟</t>
+    <t>سلام زما نوم (NAME) دی. زه د (نوم موسسې/حکومتي ادارې) سره یم. مهرباني وکړئ اجازه راکړئ چې تاسو د ټیم نورو غړو (NAME(S)) ته معرفي کړم. موږ نن دلته یو ترڅو د تغذیې په اړه معلومات راټول کړو. موږ غواړو یو څو پوښتنې وکړو او په کور کې د ماشومانو او/یا امیندوارو/شیدې ورکونکو میرمنو لپاره اقدامات وکړو ترڅو په سیمه کې د تغذیې شرایط وټاکو. تر اوسه معلومه نه ده چې د سروې د بشپړیدو په صورت کې به څه اقدامات وشي. ټول معلومات به په بشپړه توګه محرم وساتل شي. ایا تاسو کومه پوښتنه لرئ؟ ایا زه پیل کولی شم؟</t>
+  </si>
+  <si>
+    <t>سلام نام من (NAME) است. من با ( سازمان NAME/سازمان دولتی) هستم. لطفا اجازه دهید شما را به سایر اعضای تیم (NAME(S)) معرفی کنم. ما امروز اینجا هستیم تا اطلاعاتی در مورد تغذیه جمع آوری کنیم. مایلیم چند سوال بپرسیم و اقداماتی را از کودکان و/یا زنان باردار/شیرده در خانواده برای تعیین شرایط تغذیه در منطقه انجام دهیم. در حال حاضر مشخص نیست که چه اقداماتی پس از تکمیل نظرسنجی انجام خواهد شد. تمامی اطلاعات کاملاً محرمانه خواهد بود. آیا سوالی دارید؟ می توانم شروع کنم؟</t>
   </si>
   <si>
     <t>note</t>
@@ -210,12 +210,12 @@
     <t>CONSENT REFUSED: Please ensure that Team Leader has explained clearly the objectives of the survey.  If the head of household / respondent still refuses, go to end of questionnaire.</t>
   </si>
   <si>
-    <t>رضایت رد شد: لطفاً مطمئن شوید که رهبر تیم اهداف نظرسنجی را به وضوح توضیح داده است. اگر سرپرست خانواده / پاسخگو باز هم امتناع کرد، به انتهای پرسشنامه بروید.</t>
-  </si>
-  <si>
     <t>رضایت رد شوی: مهرباني وکړئ ډاډ ترلاسه کړئ چې د ټیم مشر د سروې موخې په روښانه توګه تشریح کړي. که د کورنۍ مشر / ځواب ورکوونکی بیا هم انکار وکړي، د پوښتنلیک پای ته لاړ شئ.</t>
   </si>
   <si>
+    <t>رضایت رد شد: لطفاً مطمئن شوید که رهبر تیم اهداف سروی را به وضوح توضیح داده است. اگر سرپرست خانواده/ پاسخگو باز هم امتناع کرد، به انتهای پرسشنامه بروید.</t>
+  </si>
+  <si>
     <t>${consent}=2</t>
   </si>
   <si>
@@ -228,19 +228,19 @@
     <t>CURRENT HOUSEHOLD MEMBERS: Please complete the following questions for each household member who lives in the household.</t>
   </si>
   <si>
+    <t>د کور اوسني غړي: مهرباني وکړئ د کورنۍ د هر غړي لپاره چې په کورنۍ کې ژوند کوي لاندې پوښتنې بشپړې کړئ.</t>
+  </si>
+  <si>
     <t>اعضای فعلی خانواده: لطفاً برای هر یک از اعضای خانواده که در خانه زندگی می کنند، سؤالات زیر را تکمیل کنید.</t>
   </si>
   <si>
-    <t>د کور اوسني غړي: مهرباني وکړئ د کورنۍ د هر غړي لپاره چې په کورنۍ کې ژوند کوي لاندې پوښتنې بشپړې کړئ.</t>
-  </si>
-  <si>
     <t>Press "+ "  to add another household member until all members are listed. When listing is complete, continue with the questionnaire.</t>
   </si>
   <si>
-    <t>"+" را فشار دهید - برای افزودن یکی دیگر از اعضای خانواده تا زمانی که همه اعضا فهرست شوند. پس از تکمیل فهرست، برای ادامه پرسشنامه،"" را فشار دهید.</t>
-  </si>
-  <si>
-    <t>فشار ورکړئ"Add Group"  - د کورنۍ بل غړي اضافه کولو لپاره تر هغه چې ټول غړي لیست شوي نه وي. کله چې لیست کول بشپړ شي، د پوښتنلیک سره د دوام لپاره "Do Not Add"  فشار ورکړئ.</t>
+    <t>د کورنۍ بل غړي اضافه کولو لپاره "+" فشار ورکړئ تر هغه چې ټول غړي لیست شوي نه وي. کله چې لیست بشپړ شي، د پوښتنلیک سره دوام ورکړئ.</t>
+  </si>
+  <si>
+    <t>"+ " را فشار دهید تا یکی دیگر از اعضای خانواده اضافه شود تا زمانی که همه اعضا در لیست قرار گیرند. پس از تکمیل فهرست، پرسشنامه را ادامه دهید.</t>
   </si>
   <si>
     <t>begin_repeat</t>
@@ -252,12 +252,12 @@
     <t>Household Members</t>
   </si>
   <si>
-    <t>تعداد اعضای خانواده</t>
-  </si>
-  <si>
     <t>د کورنۍ د غړو شمیر</t>
   </si>
   <si>
+    <t>اعضای خانواده</t>
+  </si>
+  <si>
     <t>hh_roster1</t>
   </si>
   <si>
@@ -267,12 +267,12 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>نوم</t>
+  </si>
+  <si>
     <t>اسم</t>
   </si>
   <si>
-    <t>نوم</t>
-  </si>
-  <si>
     <t>translate(${name_lower}, "abcdefghijklmnopqrstuvwxyz", "ABCDEFGHIJKLMNOPQRSTUVWXYZ")</t>
   </si>
   <si>
@@ -294,27 +294,33 @@
     <t>What is the age of the household member ${name} (in completed years)?</t>
   </si>
   <si>
-    <t>سن عضو خانواده  ${name}  چقدر است (به اساس سال تکمیل شده)؟</t>
-  </si>
-  <si>
     <t>د کورنۍ غړي ${name}  (په بشپړو کلونو کې) عمر څومره دی؟</t>
   </si>
   <si>
+    <t>سن عضو خانواده ${name} (در سالهای تکمیل شده) چقدر است؟</t>
+  </si>
+  <si>
     <t>Please enter an age in complete years for every household member. You do not need to see proof of age. If age is less than 1 year, record 0.</t>
   </si>
   <si>
-    <t>لطفاً برای هر عضو خانواده یک سن را به اساس سال تکمیل شده وارد کنید. شما نیازی به دیدن مدرک سن ندارید. اگر سن کمتر از 1 سال است، 0 را ثبت کنید.</t>
-  </si>
-  <si>
     <t>مهرباني وکړئ د کورنۍ د هر غړي لپاره په بشپړو کلونو کې عمر ولیکئ. تاسو اړتیا نلرئ د عمر ثبوت وګورئ. که عمر یې له 1 کال څخه کم وي، ریکارډ 0.</t>
   </si>
   <si>
+    <t>لطفاً برای هر عضو خانواده یک سن را در سالهای کامل وارد کنید. شما نیازی به دیدن مدرک سن ندارید. اگر سن کمتر از 1 سال است، 0 را ثبت کنید.</t>
+  </si>
+  <si>
     <t>(. &gt;= 0 and . &lt;= 120)</t>
   </si>
   <si>
     <t>Age in years (0 - 120)</t>
   </si>
   <si>
+    <t>په کلونو کې عمر (0 - 120)</t>
+  </si>
+  <si>
+    <t>سن بر حسب سال (0 - 120)</t>
+  </si>
+  <si>
     <t>is_child</t>
   </si>
   <si>
@@ -351,31 +357,31 @@
     <t>Just to confirm, you have mentioned ${numfamily} person(s)/people in the household today?</t>
   </si>
   <si>
-    <t>فقط برای تأیید، شما به ${numfamily} نفر(ها)/افراد در خانواده را امروز  متذکر شده اید؟</t>
-  </si>
-  <si>
     <t>یوازې د تایید لپاره، تاسو نن ورځ په کورنۍ کې ${numfamily} کس/خلک ذکر کړي دي؟</t>
   </si>
   <si>
+    <t>فقط برای تأیید، شما به ${numfamily} نفر(ها)/افراد در خانواده امروز اشاره کرده اید؟</t>
+  </si>
+  <si>
     <t>numfam_ver</t>
   </si>
   <si>
     <t>What is the total number of current members of your household?</t>
   </si>
   <si>
+    <t>ستاسو د کورنۍ د اوسنیو غړو  شمیر څومره دی؟</t>
+  </si>
+  <si>
     <t>تعداد کل اعضای فعلی خانواده شما چقدر است؟</t>
   </si>
   <si>
-    <t>ستاسو د کورنۍ د اوسنیو غړو  شمیر څومره دی؟</t>
-  </si>
-  <si>
-    <t>If the reported number does not match the total, please return to the household listing and correct the household member information. To delete one person, press "-" in the box with the person's details , then select "CONFIRM" to delete the person from the household.</t>
-  </si>
-  <si>
-    <t>اگر تعداد گزارش شده با کل مطابقت ندارد، لطفاً به فهرست خانوار برگردید و اطلاعات اعضای خانواده را تصحیح کنید. برای حذف یک نفر، در قسمتی که پاسخ این شخص وارد شده است فشار دهید، سپس "Remove group" را انتخاب کنید. تمام اطلاعات آن گروه/شخص حذف خواهد شد.</t>
-  </si>
-  <si>
-    <t>که راپور شوي شمیره د مجموعې سره سمون ونلري، مهرباني وکړئ د کورنۍ لیست ته بیرته راشئ او د کورنۍ د غړو معلومات سم کړئ. د یو کس د حذف کولو لپاره، په هغه ساحه کې اوږد فشار ورکړئ چیرې چې د دې کس لپاره ځواب داخل شوی وي، بیا "Remove group" غوره کړئ. د دې ډلې/شخص ټول معلومات به حذف شي.</t>
+    <t>If the reported number does not match the total, please return to the household listing and correct the household member information. To delete one person, press "-" in the box with the person's details, then select "CONFIRM" to delete the person from the household.</t>
+  </si>
+  <si>
+    <t>که راپور شوي شمیره د مجموعې سره سمون ونلري، مهرباني وکړئ د کورنۍ لیست ته بیرته راشئ او د کورنۍ د غړو معلومات سم کړئ. د یو کس د حذف کولو لپاره، د شخص د توضیحاتو په برخه کې "-" فشار ورکړئ، بیا د کورنۍ څخه د حذف کولو لپاره "CONFIRM" غوره کړئ.</t>
+  </si>
+  <si>
+    <t>اگر تعداد گزارش شده با کل مطابقت ندارد، لطفاً به فهرست خانواده برگردید و اطلاعات اعضای خانواده را تصحیح کنید. برای حذف یک نفر، "-" را در بخش مشخصات فرد فشار دهید، سپس "CONFIRM" را انتخاب کنید تا فرد از خانواده حذف شود.</t>
   </si>
   <si>
     <t>${numfam_confirm} ='0'</t>
@@ -411,12 +417,12 @@
     <t>Child Section</t>
   </si>
   <si>
-    <t>بخش کودک</t>
-  </si>
-  <si>
     <t>د ماشوم برخه</t>
   </si>
   <si>
+    <t>بخش اطفال</t>
+  </si>
+  <si>
     <t>${numchildren}</t>
   </si>
   <si>
@@ -456,10 +462,10 @@
     <t>Now entering data for child: ${child_name} (${CHSEX}) with age in years: ${child_age_years}</t>
   </si>
   <si>
-    <t>اکنون معلومات فرزند را وارد کنید: ${child_name} : ${CHSEX}  با سن به سال: ${child_age_years}</t>
-  </si>
-  <si>
-    <t>اوس د ماشوم معلومات داخل کړئ: ${child_name} : ${CHSEX}) عمر: ${child_age_years}</t>
+    <t>اوس د ماشوم معلومات داخل کړئ: ${child_name} (${CHSEX}) عمر: ${child_age_years}</t>
+  </si>
+  <si>
+    <t>اکنون معلومات اطفال را وارد می‌کنید: ${child_name} (${CHSEX}) با سن به سال: ${child_age_years}</t>
   </si>
   <si>
     <t>${consent}='1' and ${child_age_years}&lt;6</t>
@@ -474,19 +480,19 @@
     <t>Do you have an official age documentation for ${child_name}?</t>
   </si>
   <si>
+    <t>ایا تاسو د ${child_name} لپاره د عمر رسمي اسناد لرئ؟</t>
+  </si>
+  <si>
     <t>آیا سند رسمی سن برای ${child_name} دارید؟</t>
   </si>
   <si>
-    <t>ایا تاسو د ${child_name} لپاره د عمر رسمي اسناد لرئ؟</t>
-  </si>
-  <si>
     <t>The exact date of birth (day, month, year) is recorded from either a birth registration, child health card or EPI card if available.</t>
   </si>
   <si>
-    <t>تاریخ دقیق تولد (روز، ماه، سال) از ثبت تولد، کارت سلامت کودک یا کارت EPI در صورت وجود ثبت می شود.</t>
-  </si>
-  <si>
-    <t>د زیږون دقیقه نیټه (ورځ، میاشت، کال) د زیږون ثبتولو، د ماشوم روغتیا کارت یا د EPI کارت څخه ثبت کیږي که چیرې شتون ولري.</t>
+    <t>د زیږون دقیقه نیټه (ورځ، میاشت، کال) د زیږون ثبتولوکارت، د ماشوم روغتیا کارت یا د EPI کارت څخه ثبت کیږي که چیرې شتون ولري.</t>
+  </si>
+  <si>
+    <t>تاریخ دقیق تولد (روز، ماه، سال) را از کارت ثبت تولد، کارت سلامت کودک یا کارت EPI در صورتیکه موجود باشد ثبت می شود.</t>
   </si>
   <si>
     <t>date</t>
@@ -498,21 +504,21 @@
     <t>${child_name}'s date of birth:</t>
   </si>
   <si>
+    <t>د ${child_name} د زیږون نیټه:</t>
+  </si>
+  <si>
     <t>تاریخ تولد ${child_name}:</t>
   </si>
   <si>
-    <t>د ${child_name} د زیږون نیټه:</t>
-  </si>
-  <si>
-    <t>The exact birth date should only be taken from an age documentation showing day, month and year of birth</t>
-  </si>
-  <si>
-    <t>تاریخ دقیق تولد فقط باید از مدارک سنی که روز، ماه و سال تولد را نشان می دهد گرفته شود</t>
+    <t>The exact birth date should be taken from a document showing day, month and year of birth</t>
   </si>
   <si>
     <t>د زیږون دقیق نیټه باید یوازې د عمر اسنادو څخه واخیستل شي چې د زیږون ورځ، میاشت او کال ښیي</t>
   </si>
   <si>
+    <t>تاریخ دقیق تولد فقط باید ازاسناد سنی که روز، ماه و سال تولد را نشان می دهد گرفته شود</t>
+  </si>
+  <si>
     <t>no-calendar</t>
   </si>
   <si>
@@ -528,19 +534,19 @@
     <t>Age of ${child_name} in completed months:</t>
   </si>
   <si>
+    <t>په بشپړو میاشتو کې د ${child_name} عمر:</t>
+  </si>
+  <si>
     <t>سن ${child_name} در ماه های تکمیل شده:</t>
   </si>
   <si>
-    <t>په بشپړو میاشتو کې د ${child_name} عمر:</t>
-  </si>
-  <si>
-    <t>Since no age documentation is available, estimate age using a local events calendar.  Leave blank if age in months is not known.</t>
-  </si>
-  <si>
-    <t>از آنجایی که هیچ سند سنی در دسترس نیست، سن را با استفاده از تقویم رویدادهای محلی تخمین بزنید. اگر سن در ماه مشخص نیست، خالی بگذارید.</t>
-  </si>
-  <si>
-    <t>څرنګه چې د عمر اسناد شتون نلري، د ځایی پیښو تقویم په کارولو سره د عمر اټکل وکړئ. که په میاشتو کې عمر معلوم نه وي خالي پریږدئ.</t>
+    <t>If no age documentation is available, estimate age using a local events calendar.  Leave blank if age in months is not known.</t>
+  </si>
+  <si>
+    <t>څرنګه چې د عمر اسناد شتون نلري، د ځایی پیښو نیته په کارولو سره د عمر اټکل وکړئ. که په میاشتو کې عمر معلوم نه وي خالي پریږدئ.</t>
+  </si>
+  <si>
+    <t>از آنجایی که هیچ سند سنی در دسترس نیست، سن را با استفاده ازتاریخ رویدادهای محلی تخمین بزنید. اگر سن در ماه مشخص نیست، خالی بگذارید.</t>
   </si>
   <si>
     <t>. &gt;= 0</t>
@@ -552,6 +558,12 @@
     <t>Age in months must be 0 or older.</t>
   </si>
   <si>
+    <t>په میاشتو کې عمر باید 0 یا ډیر وي.</t>
+  </si>
+  <si>
+    <t>سن در ماه باید 0 یا بیشتر باشد.</t>
+  </si>
+  <si>
     <t>xmonths_test</t>
   </si>
   <si>
@@ -567,30 +579,30 @@
     <t>age_noconfirm</t>
   </si>
   <si>
-    <t>${child_name} 's age is unknown.</t>
+    <t>${child_name}'s age is unknown.</t>
+  </si>
+  <si>
+    <t>د ${child_name} عمر معلوم نه دی.</t>
   </si>
   <si>
     <t>سن ${child_name} نامشخص است.</t>
   </si>
   <si>
-    <t>د ${child_name} عمر معلوم نه دی.</t>
-  </si>
-  <si>
     <t>${MONTHS} = 98</t>
   </si>
   <si>
     <t>age_confirm</t>
   </si>
   <si>
-    <t>${child_name}- is ${MONTHS} months old.</t>
-  </si>
-  <si>
-    <t>{child_name}$ : {MONTHS}$ ماه عمر دار..</t>
+    <t>${child_name} is ${MONTHS} months old.</t>
   </si>
   <si>
     <t>${child_name} : د ${MONTHS} میاشتې عمر لري.</t>
   </si>
   <si>
+    <t>${child_name} - ${MONTHS} چند ماه است.</t>
+  </si>
+  <si>
     <t>${MONTHS} &lt; 98</t>
   </si>
   <si>
@@ -615,19 +627,20 @@
     <t>Weight in KG of ${child_name} :</t>
   </si>
   <si>
+    <t>وزن په کیلوګرام کې ${child_name}:</t>
+  </si>
+  <si>
     <t>وزن به کیلوگرم ${child_name}:</t>
   </si>
   <si>
-    <t>وزن په کیلوګرام کې ${child_name}:</t>
-  </si>
-  <si>
     <t>The child must be weighed naked. Remove diapers, necklaces and other items that could increase the weight before measuring. REMINDER: Always record weight with one digit after the decimal point.</t>
   </si>
   <si>
-    <t>کودک را باید برهنه وزن کرد. قبل از اندازه گیری، لباس، گردنبند و سایر مواردی که می توانند وزن را افزایش دهند، بردارید. یادآوری: همیشه وزن را با یک رقم بعد از نقطه اعشار ثبت کنید.</t>
-  </si>
-  <si>
-    <t>ماشوم باید بربنډ وزن شي. ډایپرونه، هارونه او نور توکي لرې کړئ چې وزن یې د اندازه کولو دمخه زیاتولی شي. یادونه: تل د اعشاریه ټکي وروسته د یوې عدد سره وزن ثبت کړئ.</t>
+    <t>ماشوم باید بربنډ وزن شي. ډایپرونه، هارونه او نور توکي لرې کړئ چې وزن یې د اندازه کولو دمخه زیاتولی شي. یادونه: تل وزن د اعشاریه ټکي وروسته د یوې عدد سره  ثبت کړئ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> طفل را باید برهنه وزن کرد. قبل از اندازه گیری، لباس، گردنبند و سایر مواردی که می توانند وزن را افزایش دهند، بردارید. یادآوری: همیشه وزن را با یک رقم بعد از نقطه اعشار ثبت کنید.
+</t>
   </si>
   <si>
     <t>(. &gt;= 0.1 and . &lt;= 31.0)</t>
@@ -636,40 +649,46 @@
     <t>Please remeasure child's weight</t>
   </si>
   <si>
+    <t>مهرباني وکړئ د ماشوم وزن اندازه کړئ</t>
+  </si>
+  <si>
+    <t>لطفا وزن طفل را دوباره اندازه گیری کنید</t>
+  </si>
+  <si>
     <t>select_one edema</t>
   </si>
   <si>
     <t>CLOTHES</t>
   </si>
   <si>
-    <t>Was ${child_name}  dressed with clothes for the weight measurement?</t>
+    <t>Was ${child_name} dressed with clothes for the weight measurement?</t>
+  </si>
+  <si>
+    <t>آیا ${child_name} د وزن اندازه کولو لپاره جامې اغوستې وې؟</t>
   </si>
   <si>
     <t>آیا ${child_name} برای اندازه گیری وزن لباس پوشیده بود؟</t>
   </si>
   <si>
-    <t>آیا ${child_name} د وزن اندازه کولو لپاره جامې اغوستې وې؟</t>
-  </si>
-  <si>
     <t>HEIGHT</t>
   </si>
   <si>
     <t>Height in CM of ${child_name}:</t>
   </si>
   <si>
-    <t>قد در سانتی متر ${child_name}:</t>
-  </si>
-  <si>
     <t>لوړوالی په سانتي مترو کې ${child_name}:</t>
   </si>
   <si>
+    <t>قد به سانتی متر ${child_name}:</t>
+  </si>
+  <si>
     <t>Children younger than 24 months are measured lying down, while standing height is measured in children aged 24 months and older. If age in months is unknown, children less than 87 cm are measured lying down, while those greater than or equal to 87 cm are measured standing up.                                                                                                                                                 REMINDER: Always record height with one digit after the decimal point.</t>
   </si>
   <si>
-    <t>کودکان کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند، در حالی که قد ایستاده در کودکان 24 ماهه و بالاتر اندازه گیری می شود. اگر سن بر حسب ماه نامشخص باشد، کودکان کمتر از 87 سانتی متر در حالت دراز کشیدن اندازه گیری می شوند، در حالی که بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. یادآوری: همیشه ارتفاع را با یک رقم بعد از نقطه اعشار ثبت کنید.</t>
-  </si>
-  <si>
-    <t>د 24 میاشتو څخه کم عمر لرونکي ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې د ولاړ قد اندازه د 24 میاشتو او تر هغه پورته ماشومانو کې اندازه کیږي. که چیرې په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه کم ماشومان په پرده اندازه کیږي، پداسې حال کې چې د 87 سانتي مترو څخه ډیر یا مساوي په ولاړه اندازه کیږي. یادونه: تل د لسیزې نقطې وروسته د یوې عدد سره لوړوالی ثبت کړئ.</t>
+    <t>د 24 میاشتو څخه کم عمر لرونکي ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې  د 24 میاشتو او تر هغه پورته ماشومانو کې په ولاړه اندازه کیږي. که چیرې په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه کم د 87 سانتي مترو څخه کم ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې د 87 سانتي مترو څخه ډیر یا مساوي په ولاړه اندازه کیږي. یادونه:تل لوړوالی د اعشاریه ټکي وروسته د عدد سره ثبت کړئ.</t>
+  </si>
+  <si>
+    <t>اطفال کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند، در حالی که در کودکان 24 ماهه و بالاتردر حالت ایستاده اندازه گیری می شود. اگر سن بر حسب ماه نامشخص باشد، کودکان کمتر از 87 سانتی متر در حالت دراز کشیدن اندازه گیری می شوند، در حالی که بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. یادآوری: همیشه ارتفاع را با یک رقم بعد از نقطه اعشار ثبت کنید.</t>
   </si>
   <si>
     <t>(. &gt;= 30.0 and . &lt;= 124.0)</t>
@@ -678,6 +697,12 @@
     <t>Please remeasure child's Height</t>
   </si>
   <si>
+    <t>مهرباني وکړئ د ماشوم قد اندازه کړئ</t>
+  </si>
+  <si>
+    <t>لطفاً قد طفل را دوباره اندازه گیری کنید</t>
+  </si>
+  <si>
     <t>select_one length_height</t>
   </si>
   <si>
@@ -687,24 +712,24 @@
     <t>Record measurement taken:  Length or Height</t>
   </si>
   <si>
+    <t>د ریکارډ اندازه اخیستل: اوږدوالی یا لوړوالی</t>
+  </si>
+  <si>
     <t>اندازه گیری انجام شده را ثبت کنید: طول یا ارتفاع</t>
   </si>
   <si>
-    <t>د ریکارډ اندازه اخیستل: اوږدوالی یا لوړوالی</t>
-  </si>
-  <si>
     <t>warning_length</t>
   </si>
   <si>
     <t>PLEASE, MEASURE LENGTH. Children younger than 24 months are measured lying down. If age in months is unknown, children less than 87 cm are measured lying down. Please remeasure child's length and correct the information on measurement taken.</t>
   </si>
   <si>
-    <t>لطفا، طول را اندازه بگیرید. کودکان کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان کمتر از 87 سانتی متر در حالت درازکش اندازه گیری می شوند. لطفاً طول کودک را دوباره اندازه گیری کنید و اطلاعات اندازه گیری شده را تصحیح کنید.</t>
-  </si>
-  <si>
     <t>مهرباني وکړئ، اوږدوالی اندازه کړئ. د 24 میاشتو څخه کم عمر لرونکي ماشومان په لیوالتیا اندازه کیږي. که چیرې په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه کم ماشومان په لیوالتیا اندازه کیږي. مهرباني وکړئ د ماشوم اوږدوالی بیا اندازه کړئ او د اندازه کولو په اړه معلومات سم کړئ.</t>
   </si>
   <si>
+    <t>لطفا، طول را اندازه بگیرید. کودکان کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان کمتر از 87 سانتی متر در حالت درازکشدن اندازه گیری می شوند. لطفاً طول طفل را دوباره اندازه گیری کنید و اطلاعات اندازه گیری شده را تصحیح کنید.</t>
+  </si>
+  <si>
     <t>((${MEASURE} = 'h' and ${MONTHS} &lt;24) or (${MEASURE} = 'h' and ${MONTHS} = 98 and ${HEIGHT} &lt;87))</t>
   </si>
   <si>
@@ -714,12 +739,12 @@
     <t>PLEASE, MEASURE HEIGHT. Children aged 24 months and older are measured standing up. If age in months is unknown, children greater than or equal to 87 cm are measured standing up. Please remeasure child'sheight and correct the information on measurement taken.</t>
   </si>
   <si>
-    <t>لطفا ارتفاع را اندازه بگیرید. کودکان 24 ماهه و بزرگتر در حالت ایستاده اندازه گیری می شوند. اگر سن در ماه مشخص نباشد، نوزادان بالای 87 سانتی متر یا مساوی در حالت ایستاده اندازه گیری می شوند. لطفا قد کودک را اندازه بگیرید و اطلاعات اندازه گیری را اصلاح کنید.</t>
-  </si>
-  <si>
     <t>مهرباني وکړئ، لوړوالی اندازه کړئ. د 24 میاشتو او ډیر عمر لرونکي ماشومان په ولاړه اندازه کیږي. که په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه ډیر یا مساوي ماشومان په ولاړه اندازه کیږي. مهرباني وکړئ د ماشوم قد اندازه کړئ او د اندازه کولو په اړه معلومات سم کړئ.</t>
   </si>
   <si>
+    <t>لطفا ارتفاع را اندازه بگیرید. کودکان 24 ماهه و بزرگتر در حالت ایستاده اندازه گیری می شوند. اگر سن در ماه مشخص نباشد، نوزادان بالای 87 سانتی متر یا مساوی در حالت ایستاده اندازه گیری می شوند. لطفا قد طفل را دوباره اندازه بگیرید و اطلاعات اندازه گیری را اصلاح کنید.</t>
+  </si>
+  <si>
     <t>((${MEASURE} = 'l' and ${MONTHS} &gt;=24) or (${MEASURE} = 'l' and ${MONTHS} = 98 and ${HEIGHT} &gt;=87))</t>
   </si>
   <si>
@@ -729,55 +754,60 @@
     <t>MUAC in MM of ${child_name}</t>
   </si>
   <si>
-    <t>MUAC در میلی متر از {child_name}$</t>
-  </si>
-  <si>
     <t>MUAC په ملی مترو کې له  ${child_name} څخه</t>
   </si>
   <si>
-    <t>Please measure MUAC on the left arm of the child. Position yourself on the right of the child/caregiver. Take measure at the mid-point between the tips of the shoulder and elbow.  Please record measure in MM.</t>
+    <t>MUAC در میلی متر از ${child_name}</t>
+  </si>
+  <si>
+    <t>Please measure MUAC on the left arm of the child. Position yourself on your right of the child/caregiver. Take measure at the mid-point between the tips of the shoulder and elbow with arm fully extended.  Please record measure in MM.</t>
+  </si>
+  <si>
+    <t>مهرباني وکړئ د ماشوم په چپ لاس کې MUAC اندازه کړئ. خپل ځان د ماشوم / پالونکي په ښي خوا کې ونیسئ. د اوږو او زنګون د لارښوونو ترمینځ په مینځ نقطه کې اندازه وکړئ. مهرباني وکړئ اندازه په میلی متر کې ثبت کړئ.</t>
   </si>
   <si>
     <t>لطفا MUAC را در بازوی چپ کودک اندازه گیری کنید. خود را در سمت راست کودک/مراقب قرار دهید. اندازه را در نقطه وسط بین نوک شانه و آرنج بگیرید. لطفا اندازه گیری را در میلی متر ثبت کنید.</t>
   </si>
   <si>
-    <t>مهرباني وکړئ د ماشوم په چپ لاس کې MUAC اندازه کړئ. خپل ځان د ماشوم / پالونکي په ښي خوا کې ونیسئ. د اوږو او زنګون د لارښوونو ترمینځ په مینځ نقطه کې اندازه وکړئ. مهرباني وکړئ اندازه په میلی متر کې ثبت کړئ.</t>
-  </si>
-  <si>
     <t>(. &gt;= 55 and . &lt;= 235)</t>
   </si>
   <si>
     <t>( ${MONTHS}&gt;3)</t>
   </si>
   <si>
-    <t>Please remeasure  child's MUAC</t>
-  </si>
-  <si>
     <t>Please remeasure child's MUAC</t>
   </si>
   <si>
+    <t>مهرباني وکړئ د ماشوم MUAC بیا اندازه کړئ</t>
+  </si>
+  <si>
+    <t>لطفاً MUAC طفل را دوباره اندازه گیری کنید</t>
+  </si>
+  <si>
     <t>EDEMA</t>
   </si>
   <si>
-    <t>Does ${child_name}  have bilateral oedema, that is swelling with pitting oedema in both feet?</t>
-  </si>
-  <si>
-    <t>آیا ${child_name} اذیما دو طرفه دارد، یعنی تورم همراه با اذیماحفره‌ای در هر دو پا؟</t>
-  </si>
-  <si>
-    <t>ایا ${child_name} دوه اړخیزه اذیما لري، چې په دواړو پښو کې پړسوب لري؟</t>
+    <t>Does ${child_name} have bilateral oedema, that is swelling with pitting oedema in both feet?</t>
+  </si>
+  <si>
+    <t>ایا ${child_name} دوه اړخیزه اذیما لري، چې په دواړو پښو کې پړسوب له اذیما سره لري؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آیا ${child_name} اذیما دو طرفه دارد، یعنی تورم همراه با اذیماحفره‌ای در هر دو پا؟
+</t>
   </si>
   <si>
     <t>edema_confirm</t>
   </si>
   <si>
-    <t>Please confirm with the team leader. Does ${child_name}  have bilateral oedema?</t>
-  </si>
-  <si>
-    <t>لطفا با سرپرست تیم تایید کنید. آیا ${child_name} اذیما دوطرفه دارد؟</t>
+    <t>Please confirm with the team leader. Does ${child_name} have bilateral oedema?</t>
   </si>
   <si>
     <t>مهرباني وکړئ د ټیم مشر سره تایید کړئ. ایا ${child_name} دوه اړخیزه اذیما لري؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لطفا با سرپرست تیم تایید کنید. آیا ${child_name} اذیما دوطرفه دارد؟
+</t>
   </si>
   <si>
     <t>${EDEMA} ='y'</t>
@@ -1005,10 +1035,10 @@
     <t>REMEASURE : entering data for child: ${child_name} (${CHSEX}) with age in years: ${child_age_years} must to be remeasured</t>
   </si>
   <si>
-    <t>اندازه گیری مجدد: وارد کردن معلومات برای کودک: ${child_name}$ : {CHSEX} با سن به سال:  ${child_age_years} باید دوباره اندازه‌گیری شود</t>
-  </si>
-  <si>
-    <t>بیا اندازه کول: د ماشوم لپاره د معلوماتو داخلول: ${child_name} : ${CHSEX} په کلونو کې د عمر سره: ${child_age_years} باید بیا اندازه شي</t>
+    <t>بیا اندازه کول: د ماشوم لپاره د معلوماتو داخلول: ${child_name} (${CHSEX}) په کلونو کې د عمر سره: ${child_age_years} باید بیا اندازه شي</t>
+  </si>
+  <si>
+    <t>اندازه گیری مجدد: وارد کردن معلومات برای طفل: ${child_name} : ${CHSEX} با سن به سال: ${child_age_years} باید دوباره اندازه‌گیری شود</t>
   </si>
   <si>
     <t>dob_known_2</t>
@@ -1017,13 +1047,17 @@
     <t>REMEASURE : Do you have an official age documentation for ${child_name}?</t>
   </si>
   <si>
+    <t>بیا اندازه کول:  ایا تاسو د ${child_name} لپاره د عمر رسمي اسناد لرئ؟</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد:آیا مدارک رسمی سن برای ${child_name} دارید؟</t>
   </si>
   <si>
-    <t>بیا اندازه کول:  ایا تاسو د ${child_name} لپاره د عمر رسمي اسناد لرئ؟</t>
-  </si>
-  <si>
-    <t>د زیږون دقیقه نیټه (ورځ، میاشت، کال) د زیږون ثبتولو، د ماشوم روغتیا کارت یا د EPI کارت که چیرې شتون ولري  ثبت کیږي.</t>
+    <t>د زیږون دقیقه نیټه (ورځ، میاشت، کال) د زیږون ثبتولوکارت، د ماشوم روغتیا کارت یا د EPI کارت که چیرې شتون ولري  ثبت کیږي.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاریخ دقیق تولد (روز، ماه، سال) را از کارت ثبت تولد، کارت سلامت طفل یا کارت EPI در صورتیکه  موجود باشد ثبت می شود.
+</t>
   </si>
   <si>
     <t>BIRTHDAT_2</t>
@@ -1032,10 +1066,13 @@
     <t>REMEASURE : ${child_name}'s date of birth:</t>
   </si>
   <si>
+    <t>بیا اندازه کول: ${child_name} د زیږون نیټه</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: تاریخ تولد ${child_name}:</t>
   </si>
   <si>
-    <t>بیا اندازه کول: ${child_name} د زیږون نیټه</t>
+    <t>تاریخ دقیق تولد فقط باید از مدارک سنی که روز، ماه و سال تولد را نشان می دهد گرفته شود</t>
   </si>
   <si>
     <t>${dob_known_2} ='1'</t>
@@ -1047,13 +1084,16 @@
     <t>REMEASURE : Age of ${child_name} in completed months:</t>
   </si>
   <si>
+    <t>بیا اندازه کول: په بشپړو میاشتو کې د ${child_name} عمر:</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: سن ${child_name} در ماه های تکمیل شده:</t>
   </si>
   <si>
-    <t>بیا اندازه کول: په بشپړو میاشتو کې د ${child_name} عمر:</t>
-  </si>
-  <si>
-    <t>از آنجایی که هیچ سند سنی در دسترس نیست، سن را با استفاده از تقویم رویدادهای محلی تخمین بزنید. اگر سن به اساس ماه مشخص نیست، خالی بگذارید.</t>
+    <t>څرنګه چې د عمر اسناد شتون نلري، د ځایی پیښو تقویم په کارولو سره د عمر اټکل وکړئ. که په میاشتو کې عمر معلوم نه وي خالي پریږدئ.</t>
+  </si>
+  <si>
+    <t>از آنجایی که هیچ سند سنی در دسترس نیست، سن را با استفاده از تاریخ رویدادهای محلی تخمین بزنید. اگر سن به اساس ماه مشخص نیست، خالی بگذارید.</t>
   </si>
   <si>
     <t>(. &gt;= 0 and . &lt;= 60)</t>
@@ -1080,12 +1120,12 @@
     <t>REMEASURE : ${child_name}'s age is unknown.</t>
   </si>
   <si>
+    <t>بیا اندازه کول:  د ${child_name} عمر معلوم نه دی.</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد:سن ${child_name} نامشخص است.</t>
   </si>
   <si>
-    <t>بیا اندازه کول:  د ${child_name} عمر معلوم نه دی.</t>
-  </si>
-  <si>
     <t>${MONTHS_2} = 98</t>
   </si>
   <si>
@@ -1095,12 +1135,12 @@
     <t>REMEASURE : ${child_name}   is ${MONTHS_2} months old.</t>
   </si>
   <si>
-    <t>اندازه گیری مجدد: ${child_name} ${MONTHS_2} ماهه است.</t>
-  </si>
-  <si>
     <t>بیا اندازه کول: ${child_name} د ${MONTHS_2} میاشتې زوړ دی.</t>
   </si>
   <si>
+    <t>اندازه گیری مجدد: ${child_name} ${MONTHS_2} چند ماهه است.</t>
+  </si>
+  <si>
     <t>${MONTHS_2} &lt; 60</t>
   </si>
   <si>
@@ -1110,24 +1150,30 @@
     <t>REMEASURE : Weight in KG of ${child_name}:</t>
   </si>
   <si>
+    <t>بیا اندازه کول: وزن په  کیلو ګرامه کې ${child_name}:</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: وزن به کیلوگرم ${child_name}:</t>
   </si>
   <si>
-    <t>بیا اندازه کول: د کیلو ګرامه وزن کې ${child_name}:</t>
+    <t>ماشوم باید بربنډ وزن شي. ډایپرونه، هارونه او نور توکي لرې کړئ چې وزن یې د اندازه کولو دمخه زیاتولی شي. یادونه: تل وزن د اعشاریه ټکي وروسته د یوې عدد سره ثبت کړئ.</t>
+  </si>
+  <si>
+    <t>طفل را باید برهنه وزن کرد. قبل از اندازه گیری، لباس، گردنبند و سایر مواردی که می توانند وزن را افزایش دهند، بردارید. یادآوری: همیشه وزن را با یک رقم بعد از نقطه اعشار ثبت کنید.</t>
   </si>
   <si>
     <t>CLOTHES_2</t>
   </si>
   <si>
-    <t>REMEASURE: Was ${child_name}  dressed with clothes for the weight measurement?</t>
+    <t>REMEASURE: Was ${child_name} dressed with clothes for the weight measurement?</t>
+  </si>
+  <si>
+    <t>بیا اندازه کول: آیا ${child_name} د وزن اندازه کولو لپاره جامې اغوستل شوې وې؟</t>
   </si>
   <si>
     <t>اندازه گیری مجدد: آیا ${child_name} برای اندازه گیری وزن لباس پوشیده بود؟</t>
   </si>
   <si>
-    <t>بیا اندازه کول: آیا ${child_name} د وزن اندازه کولو لپاره جامې اغوستل شوې وې؟</t>
-  </si>
-  <si>
     <t>${WEIGHT_2}&gt;0</t>
   </si>
   <si>
@@ -1137,10 +1183,16 @@
     <t>REMEASURE : Height in CM of ${child_name}:</t>
   </si>
   <si>
+    <t>بیا اندازه کول: د ${child_name} په سانتی متر کې لوړوالی:</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: قد ${child_name} بر حسب سانتی متر:</t>
   </si>
   <si>
-    <t>بیا اندازه کول: د ${child_name} په سانتی متر کې لوړوالی:</t>
+    <t>د 24 میاشتو څخه کم عمر لرونکي ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې  د 24 میاشتو او تر هغه پورته ماشومانو په ولاړه  اندازه کیږي. که چیرې په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه کم ماشومان په  لیوالتیااندازه کیږي، پداسې حال کې چې د 87 سانتي مترو څخه ډیر یا مساوي په ولاړه اندازه کیږي. یادونه: تل  لوړوالی د لسیزې نقطې وروسته د یوې عدد سره ثبت کړئ.</t>
+  </si>
+  <si>
+    <t>اطفال  کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند، در حالی که قد ایستاده در کودکان 24 ماهه و بالاتر اندازه گیری می شود. اگر سن بر حسب ماه نامشخص باشد، کودکان کمتر از 87 سانتی متر در حالت دراز کشیدن اندازه گیری می شوند، در حالی که بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. یادآوری: همیشه ارتفاع را با یک رقم بعد از نقطه اعشار ثبت کنید.</t>
   </si>
   <si>
     <t>MEASURE_2</t>
@@ -1149,19 +1201,23 @@
     <t>REMEASURE : Record measurement taken:  Length or Height</t>
   </si>
   <si>
+    <t>بیا اندازه کول: د ثبت اندازه اخیستل شوي: اوږدوالی یا لوړوالی</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: اندازه گیری انجام شده را ثبت کنید: طول یا ارتفاع</t>
   </si>
   <si>
-    <t>بیا اندازه کول: د ثبت اندازه اخیستل شوي: اوږدوالی یا لوړوالی</t>
-  </si>
-  <si>
     <t>${HEIGHT_2}&gt;0</t>
   </si>
   <si>
     <t>warning_length_2</t>
   </si>
   <si>
-    <t>مهرباني وکړئ اوږدوالی اندازه کړئ. د 24 میاشتو څخه کم ماشومان د ویستلو پرمهال اندازه کیږي. که د میاشتو په شرایطو کې عمر مشخص شوی نه وي، د 87 سانتي مترو څخه کم ماشومان په لیوالتیا اندازه کیږي. مهرباني وکړئ د ماشوم اوږدوالی بیا اندازه کړئ او اندازه شوي معلومات سم کړئ.</t>
+    <t>مهرباني وکړئ اوږدوالی اندازه کړئ. د 24 میاشتو څخه کم ماشومان دلیوالتیا  پرمهال اندازه کیږي. که د میاشتو په شرایطو کې عمر مشخص شوی نه وي، د 87 سانتي مترو څخه کم ماشومان په لیوالتیا اندازه کیږي. مهرباني وکړئ د ماشوم اوږدوالی بیا اندازه کړئ او اندازه شوي معلومات سم کړئ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لطفا، طول را اندازه بگیرید. کودکان کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، اطفال کمتر از 87 سانتی متر در حالت درازکشدن اندازه گیری می شوند. لطفاً طول طفل را دوباره اندازه گیری کنید و اطلاعات اندازه گیری شده را تصحیح کنید.
+</t>
   </si>
   <si>
     <t>((${MEASURE_2} = 'h' and ${MONTHS_2} &lt;24) or (${MEASURE_2} = 'h' and ${MONTHS_2} = 98 and ${HEIGHT_2} &lt;87))</t>
@@ -1170,7 +1226,10 @@
     <t>warning_height_2</t>
   </si>
   <si>
-    <t>لطفا ارتفاع را اندازه بگیرید. کودکان 24 ماهه و بزرگتر در حالت ایستاده اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. لطفاً بینایی کودک را مجدداً اندازه گیری کنید و اطلاعات مربوط به اندازه گیری را تصحیح کنید.</t>
+    <t>مهرباني وکړئ، لوړوالی اندازه کړئ. د 24 میاشتو او ډیر عمر لرونکي ماشومان په ولاړه اندازه کیږي. که په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه ډیر یا مساوي ماشومان په ولاړه اندازه کیږي. مهرباني وکړئ د ماشوم قد بیا اندازه کړئ او د اندازه کولو په اړه معلومات سم کړئ.</t>
+  </si>
+  <si>
+    <t>لطفا ارتفاع را اندازه بگیرید. اطفال 24 ماهه و بزرگتر در حالت ایستاده اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد،اطفال بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. لطفاً قد طفل را مجدداً اندازه گیری کنید و اطلاعات مربوط به اندازه گیری را تصحیح کنید.</t>
   </si>
   <si>
     <t>((${MEASURE_2} = 'l' and ${MONTHS_2} &gt;=24) or (${MEASURE_2} = 'l' and ${MONTHS_2} = 98 and ${HEIGHT_2} &gt;=87))</t>
@@ -1246,15 +1305,18 @@
     <t>REMEASURE : MUAC in MM of ${child_name}</t>
   </si>
   <si>
+    <t>بیا اندازه کول: MUAC په میلی متر کې ${child_name}</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: MUAC به میلی متر از ${child_name}</t>
   </si>
   <si>
-    <t>بیا اندازه کول: MUAC په میلی متر کې ${child_name}</t>
-  </si>
-  <si>
     <t>( ${MONTHS_2}&gt;5 )</t>
   </si>
   <si>
+    <t>Please remeasure  child's MUAC</t>
+  </si>
+  <si>
     <t>sam_muac_2</t>
   </si>
   <si>
@@ -1300,16 +1362,23 @@
     <t>child_random_measure_note</t>
   </si>
   <si>
-    <t>اندازه گیری مجدد: وارد کردن داده ها برای فرزند: ${child_name}  :  ${CHSEX}  با سن به سال: ${child_age_years} باید دوباره اندازه گیری شود</t>
+    <t>بیا اندازه کول: د ماشوم لپاره د معلوماتو داخلول: ${child_name} : ${CHSEX} په کلونو کې د عمر سره: ${child_age_years} باید بیا اندازه شي</t>
+  </si>
+  <si>
+    <t>اندازه گیری مجدد: وارد کردن معلومات برای اطفال: ${child_name} ; ${CHSEX} با سن به سال: ${child_age_years} باید دوباره اندازه گیری شود</t>
   </si>
   <si>
     <t>dob_known_3</t>
   </si>
   <si>
+    <t>بیا اندازه کول: ایا تاسو د ${child_name} لپاره د عمر رسمي اسناد لرئ؟</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد:  آیا سند رسمی سن برای ${child_name} دارید؟</t>
   </si>
   <si>
-    <t>بیا اندازه کول: ایا تاسو د ${child_name} لپاره د عمر رسمي اسناد لرئ؟</t>
+    <t xml:space="preserve">تاریخ دقیق تولد (روز، ماه، سال) را از کارت ثبت تولد، کارت سلامت طفل یا کارت EPI در صورتیکه موجود باشد ثبت می شود.
+</t>
   </si>
   <si>
     <t>BIRTHDAT_3</t>
@@ -1318,12 +1387,12 @@
     <t>REMEASURE: ${child_name}'s date of birth:</t>
   </si>
   <si>
+    <t>بیا اندازه کول: ${child_name} د زیږون نیټه:</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد:  تاریخ تولد ${child_name}:</t>
   </si>
   <si>
-    <t>بیا اندازه کول: ${child_name} د زیږون نیټه:</t>
-  </si>
-  <si>
     <t>${dob_known_3} ='1'</t>
   </si>
   <si>
@@ -1336,6 +1405,9 @@
     <t>څرنګه چې د عمر اسناد شتون نلري، د ځایی پیښو  تقویم په کارولو سره د عمر اټکل وکړئ. که په میاشتو کې عمر معلوم نه وي خالي پریږدئ.</t>
   </si>
   <si>
+    <t>از آنجایی که هیچ سند سنی در دسترس نیست، سن را با استفاده از تاریخ رویدادهای محلی تخمین بزنید. اگر سن در ماه مشخص نیست، خالی بگذارید.</t>
+  </si>
+  <si>
     <t>${dob_known_3} !=1</t>
   </si>
   <si>
@@ -1354,12 +1426,12 @@
     <t>age_noconfirm_3</t>
   </si>
   <si>
+    <t>بیا اندازه کول: د ${child_name} عمر معلوم نه دی.</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: سن ${child_name} نامشخص است.</t>
   </si>
   <si>
-    <t>بیا اندازه کول: د ${child_name} عمر معلوم نه دی.</t>
-  </si>
-  <si>
     <t>${MONTHS_3} = 98</t>
   </si>
   <si>
@@ -1369,12 +1441,12 @@
     <t>REMEASURE : ${child_name}   is ${MONTHS_3} months old.</t>
   </si>
   <si>
-    <t>اندازه گیری مجدد: ${child_name}  : ${MONTHS_3} ماهه است.</t>
-  </si>
-  <si>
     <t>بیا اندازه کول: د ${child_name} : ${MONTHS_3} میاشتې عمر لري.</t>
   </si>
   <si>
+    <t>اندازه گیری مجدد: ${child_name} ${MONTHS_3} چند ماهه است.</t>
+  </si>
+  <si>
     <t>${MONTHS_3} &lt; 60</t>
   </si>
   <si>
@@ -1384,9 +1456,15 @@
     <t>بیا اندازه کول:  وزن  په  کیلو ګرامه کې ${child_name}:</t>
   </si>
   <si>
+    <t>اطفال را باید برهنه وزن کرد. قبل از اندازه گیری، لباس، گردنبند و سایر مواردی که می توانند وزن را افزایش دهند، بردارید. یادآوری: همیشه وزن را با یک رقم بعد از نقطه اعشار ثبت کنید.</t>
+  </si>
+  <si>
     <t>CLOTHES_3</t>
   </si>
   <si>
+    <t>REMEASURE: Was ${child_name}  dressed with clothes for the weight measurement?</t>
+  </si>
+  <si>
     <t>بیا اندازه کول:  آیا ${child_name} د وزن اندازه کولو لپاره جامې اغوستې وې؟</t>
   </si>
   <si>
@@ -1396,7 +1474,11 @@
     <t>HEIGHT_3</t>
   </si>
   <si>
-    <t>د 24 میاشتو څخه کم عمر لرونکي ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې د ولاړ قد اندازه د 24 میاشتو او لویانو په ماشومانو کې اندازه کیږي. که چیرې په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه کم ماشومان په پرده اندازه کیږي، پداسې حال کې چې د 87 سانتي مترو څخه ډیر یا مساوي په ولاړه اندازه کیږي. یادونه: تل د لسیزې نقطې وروسته د یوې عدد سره لوړوالی ثبت کړئ.</t>
+    <t>د 24 میاشتو څخه کم عمر لرونکي ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې د 24 میاشتو او لویانو په ماشومانو کې په ولاړه اندازه کیږي. که چیرې په میاشتو کې عمر معلوم نه وي، د 87 سانتي مترو څخه کم ماشومان په لیوالتیا اندازه کیږي، پداسې حال کې چې د 87 سانتي مترو څخه ډیر یا مساوي په ولاړه اندازه کیږي. یادونه: تل  لوړوالی د اعشاریه ټکي وروسته د یوې عدد سره  ثبت کړئ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اطفال کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند، در حالی که  دراطفال 24 ماهه و بالاتر در حالت ایستاده اندازه گیری می شود. اگر سن بر حسب ماه نامشخص باشد، اطفال  کمتر از 87 سانتی متر در حالت دراز کشیدن اندازه گیری می شوند، در حالی که بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. یادآوری: همیشه ارتفاع را با یک رقم بعد از نقطه اعشار ثبت کنید.
+</t>
   </si>
   <si>
     <t>MEASURE_3</t>
@@ -1411,7 +1493,7 @@
     <t>warning_length_3</t>
   </si>
   <si>
-    <t>لطفا، طول را اندازه بگیرید. کودکان کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان کمتر از 87 سانتی متر در حالت خوابیده اندازه گیری می شوند. لطفاً طول کودک را مجددا اندازه گیری کنید و اطلاعات مربوط به اندازه گیری را تصحیح کنید.</t>
+    <t>لطفا، طول را اندازه بگیرید.اطفال کمتر از 24 ماه در حالت دراز کشیدن اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان کمتر از 87 سانتی متر در حالت خوابیده اندازه گیری می شوند. لطفاً طول اطفال را مجددا اندازه گیری کنید و اطلاعات مربوط به اندازه گیری را تصحیح کنید.</t>
   </si>
   <si>
     <t>((${MEASURE_3} = 'h' and ${MONTHS_3} &lt;24) or (${MEASURE_3} = 'h' and ${MONTHS_3} = 98 and ${HEIGHT_3} &lt;87))</t>
@@ -1420,7 +1502,7 @@
     <t>warning_height_3</t>
   </si>
   <si>
-    <t>لطفا ارتفاع را اندازه بگیرید. کودکان 24 ماهه و بزرگتر در حالت ایستاده اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. لطفاً بینایی کودک را دوباره اندازه گیری کنید و اطلاعات مربوط به اندازه گیری را تصحیح کنید.</t>
+    <t>لطفا ارتفاع را اندازه بگیرید. کودکان 24 ماهه و بزرگتر در حالت ایستاده اندازه گیری می شوند. اگر سن بر حسب ماه مشخص نباشد، کودکان بزرگتر یا مساوی 87 سانتی متر در حالت ایستاده اندازه گیری می شوند. لطفاً قد طفل را دوباره اندازه گیری کنید و اطلاعات مربوط به اندازه گیری را تصحیح کنید.</t>
   </si>
   <si>
     <t>((${MEASURE_3} = 'l' and ${MONTHS_3} &gt;=24) or (${MEASURE_3} = 'l' and ${MONTHS_3} = 98 and ${HEIGHT_3} &gt;=87))</t>
@@ -1493,12 +1575,12 @@
     <t>MUAC_3</t>
   </si>
   <si>
+    <t>بیا اندازه کول: MUAC د ${child_name} په میلی متر کې</t>
+  </si>
+  <si>
     <t>اندازه گیری مجدد: MUAC در میلی متر از ${child_name}</t>
   </si>
   <si>
-    <t>بیا اندازه کول: MUAC د ${child_name} په میلی متر کې</t>
-  </si>
-  <si>
     <t>( ${MONTHS_3}&gt;5 )</t>
   </si>
   <si>
@@ -1544,12 +1626,12 @@
     <t>Is the child  ${child_name}  currently breastfeeding?</t>
   </si>
   <si>
+    <t>ایا ${child_name} اوس مهال د مور شیدې ورکوي؟</t>
+  </si>
+  <si>
     <t>آیا کودک ${child_name} در حال حاضر با شیر مادر تغذیه میشود ؟</t>
   </si>
   <si>
-    <t>ایا ${child_name} اوس مهال د مور شیدې ورکوي؟</t>
-  </si>
-  <si>
     <t>${MONTHS}&lt;24  or (${MONTHS}=98 and ${HEIGHT}&lt;=87)</t>
   </si>
   <si>
@@ -1559,54 +1641,59 @@
     <t>Has the child  ${child_name}  received vitamin A in the past 6 months ?</t>
   </si>
   <si>
-    <t>آیا کودک ${child_name} ویتامین A در 6 ماه گذشته دریافت کرده است؟</t>
-  </si>
-  <si>
     <t>آیا ماشوم ${child_name} په تیرو شپږو میاشتو کې ویټامین A ترلاسه کړی؟</t>
   </si>
   <si>
+    <t>آیا طفل ${child_name} ویتامین A در 6 ماه گذشته دریافت کرده است؟</t>
+  </si>
+  <si>
     <t>A drop in the mouth of vitamin A to prevent illness and blindness (show demonstration vitamin A capsule)</t>
   </si>
   <si>
+    <t xml:space="preserve"> د ویټامین A یو څاڅکی په خوله کې د ناروغۍ او ړوندوالي د مخنیوي لپاره  (د ویټامین A کپسول ښودل)</t>
+  </si>
+  <si>
     <t>یک قطره ویتامین A در دهان برای جلوگیری از بیماری و نابینایی (نمایش کپسول ویتامین A)</t>
   </si>
   <si>
-    <t>د ناروغۍ او ړوندوالي د مخنیوي لپاره د ویټامین A په خوله کې یو څاڅکی (د ویټامین A کپسول ښودل)</t>
-  </si>
-  <si>
     <t>(${MONTHS}&gt;5 and ${MONTHS} &lt;60) or (${MONTHS}=98 and ${HEIGHT}&gt;67)</t>
   </si>
   <si>
     <t>measles</t>
   </si>
   <si>
-    <t>آیا کودک ${child_name} واکسن سرخکان دریافت کرده است؟</t>
+    <t>Has the child  ${child_name} received a measles vaccination?</t>
   </si>
   <si>
     <t>آیا ماشوم ${child_name} د شری واکسین اخیستی دی؟</t>
   </si>
   <si>
+    <t>آیا طفل ${child_name} واکسین سرخکان دریافت کرده است؟</t>
+  </si>
+  <si>
     <t>A Measles/MMR vaccination is an injection in the arm to prevent measles?</t>
   </si>
   <si>
-    <t>واکسن سرخکان/MMR تزریقی در بازو برای جلوگیری ازبیماری  سرخکان است</t>
-  </si>
-  <si>
     <t>د شري / MMR واکسین د شري د مخنیوي لپاره په لاس کې یو انجیکشن دی</t>
   </si>
   <si>
+    <t xml:space="preserve">واکسین سرخکان/MMR تزریقی در بازو برای جلوگیری ازبیماری  سرخکان است
+</t>
+  </si>
+  <si>
     <t>diarrhea</t>
   </si>
   <si>
     <t>Has the child  ${child_name}  had diarrhea in past 2 weeks?</t>
   </si>
   <si>
-    <t>آیا کودک ${child_name} در ۲ هفته گذشته اسهال داشته است؟</t>
-  </si>
-  <si>
     <t>آیا ماشوم ${child_name} په تیرو 2 اونیو کې اسهال درلود؟</t>
   </si>
   <si>
+    <t xml:space="preserve">آیا طفل ${child_name} در ۲ هفته گذشته اسهال داشته است؟
+</t>
+  </si>
+  <si>
     <t>${MONTHS} &lt;60 or ${MONTHS}=98</t>
   </si>
   <si>
@@ -1616,24 +1703,24 @@
     <t>Has the child  ${child_name} had cough with rapid breathing in past 2 weeks?</t>
   </si>
   <si>
-    <t>آیا کودک ${child_name} در ۲ هفته گذشته سرفه همراه با تنفس سریع داشته است؟</t>
-  </si>
-  <si>
     <t>آیا ماشوم ${child_name} په تیرو 2 اونیو کې د چټک تنفس سره ټوخی درلوده؟</t>
   </si>
   <si>
+    <t>آیا طفل ${child_name} در ۲ هفته گذشته سرفه همراه با تنفس سریع داشته است؟</t>
+  </si>
+  <si>
     <t>fever</t>
   </si>
   <si>
     <t>Has the child  ${child_name} had fever in the past 2 weeks?</t>
   </si>
   <si>
-    <t>آیا کودک ${child_name} در ۲ هفته گذشته تب داشته است؟</t>
-  </si>
-  <si>
     <t>آیا ماشوم ${child_name} په تیرو 2 اونیو کې تبه درلوده؟</t>
   </si>
   <si>
+    <t>آیا طفل ${child_name} در ۲ هفته گذشته تب داشته است؟</t>
+  </si>
+  <si>
     <t>sam_case</t>
   </si>
   <si>
@@ -1655,19 +1742,19 @@
     <t>${child_name}- has SEVERE ACUTE MALNUTRITION (SAM).</t>
   </si>
   <si>
-    <t>${child_name} - دارای سوء تغذیه حاد شدید (SAM).</t>
-  </si>
-  <si>
     <t>${child_name} - سخت خوارځواکۍ (SAM) لري.</t>
   </si>
   <si>
+    <t>${child_name} دارای سوء تغذیه حاد شدید (SAM).</t>
+  </si>
+  <si>
     <t>COMPLETE REFERRAL FORM to the SAM TREATMENT PROGRAM</t>
   </si>
   <si>
-    <t>فرم ارجاع به برنامه SAM TREATMENT را تکمیل کنید</t>
-  </si>
-  <si>
-    <t>د SAM درملنې پروګرام ته د راجع کولو فورمه ډکه کړئ</t>
+    <t>د سخت خوارځواکۍ درملنې پروګرام ته د راجع کولو فورمه ډکه کړئ</t>
+  </si>
+  <si>
+    <t>فرم ارجاع به برنامه تداوی سوء تغذیه حاد شدید را تکمیل کنید</t>
   </si>
   <si>
     <t>${sam_case} = 1</t>
@@ -1679,31 +1766,31 @@
     <t>Have you referred ${child_name}  for management of severe acute malnutrition services?</t>
   </si>
   <si>
+    <t>ایا تاسو د شدید خوارځواکۍ خدماتو مدیریت لپاره ${child_name} راجع کړی ده؟</t>
+  </si>
+  <si>
     <t>آیا ${child_name} را برای مدیریت خدمات سوء تغذیه حاد شدید معرفی کرده اید؟</t>
   </si>
   <si>
-    <t>ایا تاسو د شدید خوارځواکۍ خدماتو مدیریت لپاره ${child_name} راجع کړی ده؟</t>
-  </si>
-  <si>
     <t>mam_ref_note</t>
   </si>
   <si>
     <t>${child_name}-  has MODERATE ACUTE MALNUTRITION (MAM).</t>
   </si>
   <si>
-    <t>${child_name} - دارای سوء تغذیه حاد متوسط ​​(MAM) است.</t>
-  </si>
-  <si>
     <t>${child_name} - متوسط حاد خوارځواکي (MAM) لري.</t>
   </si>
   <si>
+    <t>${child_name} دارای سوء تغذیه حاد متوسط ​​(MAM) است.</t>
+  </si>
+  <si>
     <t>COMPLETE REFERRAL FORM to the MAM TREATMENT PROGRAM</t>
   </si>
   <si>
-    <t>فرم ارجاع  به برنامه MAM TREATMENT را تکمیل کنید</t>
-  </si>
-  <si>
-    <t>د MAM درملنې پروګرام ته د راجع کولو فورمه ډکه کړئ</t>
+    <t>د متوسط حاد خوارځواکي درملنې پروګرام ته د راجع کولو فورمه ډکه کړئ</t>
+  </si>
+  <si>
+    <t>فرم ارجاع  به برنامه تداوی سوء تغذیه حاد متوسط را تکمیل کنید</t>
   </si>
   <si>
     <t>${mam_case} = 1 and ${sam_case} !=1</t>
@@ -1715,12 +1802,12 @@
     <t>Have you referred ${child_name}  for management of moderate acute malnutrition services?</t>
   </si>
   <si>
+    <t>آیا تاسو د متوسط ​​حاد خوارځواکۍ خدماتو مدیریت لپاره ${child_name} راجع کړی؟</t>
+  </si>
+  <si>
     <t>آیا شما ${child_name} را برای مدیریت خدمات سوء تغذیه حاد متوسط ​​معرفی کرده اید؟</t>
   </si>
   <si>
-    <t>آیا تاسو د متوسط ​​حاد خوارځواکۍ خدماتو مدیریت لپاره ${child_name} راجع کړی؟</t>
-  </si>
-  <si>
     <t>child_eligible</t>
   </si>
   <si>
@@ -1751,6 +1838,9 @@
     <t>Woman section</t>
   </si>
   <si>
+    <t>بخش زنان</t>
+  </si>
+  <si>
     <t>${numwomen}</t>
   </si>
   <si>
@@ -1781,12 +1871,12 @@
     <t>Now entering data for woman: ${wom_name} aged  ${wom_age_years} years</t>
   </si>
   <si>
-    <t>اکنون اطلاعات مربوط به زنان را وارد کنید: : ${wom_name} با سن ${wom_age_years} سال</t>
-  </si>
-  <si>
     <t>اوس د میرمنو لپاره معلومات داخلول: ${wom_name} د ${wom_age_years} کلونو په عمر</t>
   </si>
   <si>
+    <t>اکنون اطلاعات مربوط به زنان را وارد کنید: ${wom_name} با سن ${wom_age_years} سال</t>
+  </si>
+  <si>
     <t>${consent}=1 and ${age_years} &gt;14 and ${age_years} &lt;50 and ${sex}= 'f'</t>
   </si>
   <si>
@@ -1796,24 +1886,24 @@
     <t>Is the household member ${wom_name} currently pregnant ?</t>
   </si>
   <si>
+    <t>ایا د کورنۍ غړې ${wom_name} اوس مهال حامله ده؟</t>
+  </si>
+  <si>
     <t>آیا عضو خانواده ${wom_name} در حال حاضر باردار است؟</t>
   </si>
   <si>
-    <t>ایا د کورنۍ غړې ${wom_name} اوس مهال حامله ده؟</t>
-  </si>
-  <si>
     <t>curr_breastfeed</t>
   </si>
   <si>
     <t>Is the household member ${wom_name} currently breastfeeding ?</t>
   </si>
   <si>
+    <t>ایا د کورنۍ غړی ${wom_name} اوس مهال شیدې ورکوي؟</t>
+  </si>
+  <si>
     <t>آیا عضو خانواده ${wom_name} در حال حاضر شیر می دهد؟</t>
   </si>
   <si>
-    <t>ایا د کورنۍ غړی ${wom_name} اوس مهال شیدې ورکوي؟</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -1823,12 +1913,12 @@
     <t>Woman's MUAC in MM of ${wom_name}</t>
   </si>
   <si>
-    <t>MUAC زن در میلی متر از ${wom_name}</t>
-  </si>
-  <si>
     <t>د ښځې MUAC د ${wom_name} په میلی متر کې</t>
   </si>
   <si>
+    <t>MUAC زن به میلی متر از ${wom_name}</t>
+  </si>
+  <si>
     <t>(. &gt;= 90 and . &lt;650)</t>
   </si>
   <si>
@@ -1838,6 +1928,9 @@
     <t>Please remeasure woman's MUAC</t>
   </si>
   <si>
+    <t>لطفا MUAC زن را دوباره اندازه گیری کنید</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -1847,16 +1940,19 @@
     <t>Please take a GPS reading</t>
   </si>
   <si>
-    <t>لطفا  برای مشخص شدن موقیعت شما GPS بګیریدږ</t>
-  </si>
-  <si>
-    <t>مهرباني وکړئ د GPS لوستل واخلئ</t>
-  </si>
-  <si>
-    <t>هتگامی که دقت اندازه گیری GPS کمتر از 25 متر باشد، دکمه "Save GeoPoint" را فشار دهید. از ګرفتن آن در داخل خانه یا زیر درختان خودداری کنید (برای سرعت بخشیدن به آن).</t>
-  </si>
-  <si>
-    <t>کله چې د GPS اندازه دقت له 25 متر څخه کم وي د "Save GeoPoint" تڼۍ فشار کړئ. د کور دننه یا د ونو لاندې د اخیستلو څخه ډډه وکړئ (د چټکتیا لپاره).</t>
+    <t>مهرباني وکړئ د GPS  واخلئ</t>
+  </si>
+  <si>
+    <t>لطفا  برای مشخص شدن موقیعت شما GPS بګیرید</t>
+  </si>
+  <si>
+    <t>Push the 'Save GeoPoint' button when standing outside of selected household. Avoid taking it inside house or under trees (to make it faster).</t>
+  </si>
+  <si>
+    <t>کله چې تاسو د ټاکل شوي کور څخه بهر ولاړ یاست د 'Save GeoPoint' تڼۍ فشار کړئ. د کور دننه یا د ونو لاندې د اخیستلو څخه ډډه وکړئ (د چټکتیا لپاره).</t>
+  </si>
+  <si>
+    <t>هنگامی که خارج از خانه انتخابی ایستاده اید، دکمه 'Save GeoPoint' را فشار دهید. ازگرفتن آن در داخل خانه یا زیر درختان خودداری کنید (برای سرعت بخشیدن به آن).</t>
   </si>
   <si>
     <t>select_one result</t>
@@ -1868,21 +1964,21 @@
     <t>You have completed the questionnaire for the household. Please enter the result of interview</t>
   </si>
   <si>
+    <t>تاسو د کورنۍ لپاره پوښتنلیک بشپړ کړی دی. مهرباني وکړئ د مرکې پایله ولیکئ</t>
+  </si>
+  <si>
     <t>شما پرسشنامه خانوار را تکمیل کرده اید. لطفا نتیجه مصاحبه را وارد کنید</t>
   </si>
   <si>
-    <t>تاسو د کورنۍ لپاره پوښتنلیک بشپړ کړی دی. مهرباني وکړئ د مرکې پایله ولیکئ</t>
-  </si>
-  <si>
     <t>THANK THE RESPONDENT.</t>
   </si>
   <si>
+    <t>له ځواب ورکوونکي څخه مننه.</t>
+  </si>
+  <si>
     <t>از پاسخگو متشکرم.</t>
   </si>
   <si>
-    <t>له ځواب ورکوونکي څخه مننه.</t>
-  </si>
-  <si>
     <t>${consent} = 1</t>
   </si>
   <si>
@@ -1910,10 +2006,10 @@
     <t>If household or eligible child are absent, team should revisit the household once before leaving the village to conduct the interview and/or measure the child.</t>
   </si>
   <si>
-    <t>اگر خانواده یا کودک واجد شرایط غایب باشد، تیم باید یک بار قبل از ترک قریه یا محل برای انجام مصاحبه و/یا اندازه گیری کودک از خانواده بازدید کند.</t>
-  </si>
-  <si>
-    <t>که چیرې کورنۍ یا وړ ماشوم غیر حاضر وي، ټیم باید د کور څخه د وتلو دمخه یو ځل د کور څخه لیدنه وکړي ترڅو مرکه ترسره کړي او/یا ماشوم اندازه کړي.</t>
+    <t>که چیرې کورنۍ یا وړ ماشوم غیر حاضر وي، ټیم باید د کلي څخه د وتلو دمخه یو ځل د کور څخه لیدنه وکړي ترڅو مرکه ترسره کړي او/یا ماشوم اندازه کړي.</t>
+  </si>
+  <si>
+    <t>اگر خانواده یا طفل واجد شرایط غایب باشد، تیم باید یک بار قبل از ترک قریه یا محل برای انجام مصاحبه و/یا اندازه گیری طفل از خانواده بازدید کند.</t>
   </si>
   <si>
     <t>${int_result} = 2 or ${int_resultoth} = 4</t>
@@ -1925,12 +2021,12 @@
     <t>Please add any relevant comments (OPTIONAL)</t>
   </si>
   <si>
+    <t>مهرباني وکړئ کوم اړوند نظرونه اضافه کړئ (اختیاري)</t>
+  </si>
+  <si>
     <t>لطفاً نظرات مرتبط را اضافه کنید (اختیاری)</t>
   </si>
   <si>
-    <t>مهرباني وکړئ کوم اړوند نظرونه اضافه کړئ (اختیاري)</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -1979,6 +2075,12 @@
     <t>'vNCvBdAcooRAbD9LSTPuzC'</t>
   </si>
   <si>
+    <t>_version__001</t>
+  </si>
+  <si>
+    <t>'vBWQK6BANUnMVv5Mx48gQb'</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -1988,24 +2090,24 @@
     <t>Traumatic</t>
   </si>
   <si>
+    <t>زیان رسوونکی</t>
+  </si>
+  <si>
     <t>آسیب زا</t>
   </si>
   <si>
-    <t>زیان رسوونکی</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>Non-traumatic</t>
   </si>
   <si>
+    <t>غیر زیان رسوونکی</t>
+  </si>
+  <si>
     <t>غیر آسیب زا</t>
   </si>
   <si>
-    <t>غیر زیان رسوونکی</t>
-  </si>
-  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -2015,33 +2117,33 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>هو</t>
+  </si>
+  <si>
     <t>بلی</t>
   </si>
   <si>
-    <t>هو</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>نه</t>
+  </si>
+  <si>
     <t>نخیر</t>
   </si>
   <si>
-    <t>نه</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>Other (No one present)</t>
   </si>
   <si>
+    <t>نور (هیڅوک شتون نلري)</t>
+  </si>
+  <si>
     <t>دیگر (هیچ کس حاضر نیست)</t>
   </si>
   <si>
-    <t>نور (هیڅوک شتون نلري)</t>
-  </si>
-  <si>
     <t>provinces</t>
   </si>
   <si>
@@ -2189,6 +2291,9 @@
     <t>خوست</t>
   </si>
   <si>
+    <t>ځوست</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -2234,6 +2339,9 @@
     <t>ننګرهار</t>
   </si>
   <si>
+    <t>ننکرهار</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
@@ -2279,6 +2387,9 @@
     <t>پنچشیر</t>
   </si>
   <si>
+    <t>پنجشیر</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -2315,6 +2426,9 @@
     <t>تخار</t>
   </si>
   <si>
+    <t>ټخار</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -2360,24 +2474,24 @@
     <t>Male</t>
   </si>
   <si>
+    <t>نارینه</t>
+  </si>
+  <si>
     <t>مرد</t>
   </si>
   <si>
-    <t>نارینه</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
+    <t>ښځینه</t>
+  </si>
+  <si>
     <t>زن</t>
   </si>
   <si>
-    <t>ښځینه</t>
-  </si>
-  <si>
     <t>length_height</t>
   </si>
   <si>
@@ -2387,79 +2501,79 @@
     <t>Standing height</t>
   </si>
   <si>
+    <t>ولاړ لوړوالی</t>
+  </si>
+  <si>
     <t>ارتفاع ایستاده</t>
   </si>
   <si>
-    <t>ولاړ لوړوالی</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
     <t>Length (lying horizontal on board)</t>
   </si>
   <si>
+    <t>اوږدوالی (په تخته کې افقی پروت)</t>
+  </si>
+  <si>
     <t>طول (خوابیده به صورت افقی روی تخته)</t>
   </si>
   <si>
-    <t>اوږدوالی (په تخته کې افقی پروت)</t>
-  </si>
-  <si>
     <t>In current location</t>
   </si>
   <si>
+    <t>په اوسني ځای کې</t>
+  </si>
+  <si>
     <t>در مکان فعلی</t>
   </si>
   <si>
-    <t>په اوسني ځای کې</t>
-  </si>
-  <si>
     <t>During migration</t>
   </si>
   <si>
+    <t>د مهاجرت پر مهال</t>
+  </si>
+  <si>
     <t>در هنگام مهاجرت</t>
   </si>
   <si>
-    <t>د مهاجرت پر مهال</t>
-  </si>
-  <si>
     <t>In place of last residence</t>
   </si>
   <si>
+    <t>د وروستي استوګنې په ځای کې</t>
+  </si>
+  <si>
     <t>در محل آخرین اقامتگاه</t>
   </si>
   <si>
-    <t>د وروستي استوګنې په ځای کې</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
+    <t>نور</t>
+  </si>
+  <si>
     <t>دیگر</t>
   </si>
   <si>
-    <t>نور</t>
-  </si>
-  <si>
     <t>refermam</t>
   </si>
   <si>
     <t>No, child is already enrolled in a nutrition program for MAM</t>
   </si>
   <si>
-    <t>نخیر، کودک قبلاً در یک برنامه تغذیه برای MAM ثبت نام کرده است</t>
-  </si>
-  <si>
-    <t>نه، ماشوم لا دمخه د MAM لپاره د تغذیې په پروګرام کې شامل شوی دی</t>
+    <t>نه، ماشوم لا دمخه د متوسط حاد خوارځواکي لپاره د تغذیې په پروګرام کې شامل شوی دی</t>
+  </si>
+  <si>
+    <t>نخیر، کودک قبلاً در یک برنامه تغذیه برای سوء تغذیه حاد متوسط ثبت نام کرده است</t>
   </si>
   <si>
     <t>No, there is no nutrition program for children with MAM</t>
   </si>
   <si>
-    <t>نخیر، هیچ برنامه تغذیه ای برای کودکان مبتلا به MAM وجود ندارد</t>
-  </si>
-  <si>
-    <t>نه، د MAM سره د ماشومانو لپاره د تغذیې هیڅ پروګرام شتون نلري</t>
+    <t>نه، د متوسط حاد خوارځواکي سره د ماشومانو لپاره د تغذیې هیڅ پروګرام شتون نلري</t>
+  </si>
+  <si>
+    <t>نخیر، هیچ برنامه تغذیه ای برای کودکان مبتلا به سوء تغذیه حاد متوسط وجود ندارد</t>
   </si>
   <si>
     <t>refersam</t>
@@ -2468,19 +2582,19 @@
     <t>No, child is already enrolled in SAM Treatment</t>
   </si>
   <si>
-    <t>نخیر، کودک قبلاً در SAM Treatment ثبت نام کرده است</t>
-  </si>
-  <si>
-    <t>نه، ماشوم لا دمخه د SAM درملنې کې شامل شوی</t>
+    <t>نه، ماشوم لا دمخه د  شدید خوارځواکۍ درملنې کې شامل شوی</t>
+  </si>
+  <si>
+    <t>نخیر، هیچ برنامه درمانی سوء تغذیه حاد شدید در دسترس نیست</t>
   </si>
   <si>
     <t>No, there is no SAM treatment program available</t>
   </si>
   <si>
-    <t>نخیر، هیچ برنامه درمانی SAM در دسترس نیست</t>
-  </si>
-  <si>
-    <t>نه، د SAM درملنې پروګرام شتون نلري</t>
+    <t>نه، د  شدید خوارځواکۍ درملنې پروګرام شتون نلري</t>
+  </si>
+  <si>
+    <t>نخیر، کودک قبلاً درتداوی سوء تغذیه حاد شدید ثبت نام کرده است</t>
   </si>
   <si>
     <t>result</t>
@@ -2489,54 +2603,54 @@
     <t>Completed</t>
   </si>
   <si>
+    <t>بشپړ شو</t>
+  </si>
+  <si>
     <t>تکمیل شد</t>
   </si>
   <si>
-    <t>بشپړ شو</t>
-  </si>
-  <si>
     <t>Partially completed</t>
   </si>
   <si>
+    <t>په جزوي توګه بشپړ شوی</t>
+  </si>
+  <si>
     <t>تا حدی تکمیل شد</t>
   </si>
   <si>
-    <t>په جزوي توګه بشپړ شوی</t>
-  </si>
-  <si>
     <t>resultoth</t>
   </si>
   <si>
     <t>Absent</t>
   </si>
   <si>
+    <t>غیر حاضر</t>
+  </si>
+  <si>
     <t>غایب</t>
   </si>
   <si>
-    <t>غیر حاضر</t>
-  </si>
-  <si>
     <t>Abandoned</t>
   </si>
   <si>
-    <t>رها شده است</t>
-  </si>
-  <si>
     <t>پریښودل</t>
   </si>
   <si>
+    <t>ترک کردن</t>
+  </si>
+  <si>
     <t>resultref</t>
   </si>
   <si>
     <t>Refused</t>
   </si>
   <si>
+    <t>انکار وکړ</t>
+  </si>
+  <si>
     <t>رد کردن</t>
   </si>
   <si>
-    <t>انکار وکړ</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -2561,19 +2675,13 @@
     <t>ACO_SMART_Survey_2022</t>
   </si>
   <si>
-    <t>2 (2022-01-06 08:45:38)</t>
+    <t>4 (2022-01-12 02:39:59)</t>
   </si>
   <si>
     <t>concat('ACO_HH',${HH},'_',${time})</t>
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Has the child  ${child_name} received a measles vaccination?</t>
-  </si>
-  <si>
-    <t>Push the 'Save GeoPoint' button when standing outside of selected household. Avoid taking it inside house or under trees (to make it faster).</t>
   </si>
 </sst>
 </file>
@@ -2589,18 +2697,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2615,10 +2717,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2957,16 +3057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R186"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="25.05078125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -3115,16 +3210,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>29</v>
@@ -3138,16 +3233,16 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -3156,71 +3251,102 @@
         <v>42</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -3228,27 +3354,45 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
       </c>
       <c r="M19" t="s">
         <v>65</v>
@@ -3256,156 +3400,129 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" t="s">
-        <v>96</v>
-      </c>
-      <c r="P26" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -3413,21 +3530,18 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -3435,331 +3549,376 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="M43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
-      <c r="M33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" t="s">
+        <v>164</v>
+      </c>
+      <c r="K46" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" t="s">
+        <v>166</v>
+      </c>
+      <c r="M46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" t="s">
-        <v>130</v>
-      </c>
-      <c r="R40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
-      </c>
-      <c r="M46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" t="s">
+        <v>174</v>
+      </c>
+      <c r="L47" t="s">
+        <v>175</v>
+      </c>
+      <c r="M47" t="s">
+        <v>176</v>
+      </c>
+      <c r="N47" t="s">
+        <v>177</v>
+      </c>
+      <c r="O47" t="s">
+        <v>178</v>
+      </c>
+      <c r="P47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>180</v>
+      </c>
+      <c r="I48" t="s">
+        <v>181</v>
       </c>
       <c r="M48" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" t="s">
-        <v>154</v>
+        <v>182</v>
+      </c>
+      <c r="I49" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" t="s">
-        <v>162</v>
-      </c>
-      <c r="K50" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="M50" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" t="s">
-        <v>172</v>
-      </c>
-      <c r="L51" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M51" t="s">
-        <v>174</v>
-      </c>
-      <c r="N51" t="s">
-        <v>175</v>
-      </c>
-      <c r="O51" t="s">
-        <v>175</v>
-      </c>
-      <c r="P51" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -3767,469 +3926,468 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>177</v>
-      </c>
-      <c r="M52" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
-      </c>
-      <c r="I53" t="s">
-        <v>179</v>
+        <v>196</v>
+      </c>
+      <c r="M53" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
-      </c>
-      <c r="M54" t="s">
-        <v>184</v>
+        <v>202</v>
+      </c>
+      <c r="F54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+      <c r="L54" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" t="s">
+        <v>207</v>
+      </c>
+      <c r="O54" t="s">
+        <v>208</v>
+      </c>
+      <c r="P54" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
-      </c>
-      <c r="M55" t="s">
-        <v>189</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" t="s">
+        <v>221</v>
+      </c>
+      <c r="L56" t="s">
+        <v>222</v>
+      </c>
+      <c r="N56" t="s">
+        <v>223</v>
+      </c>
+      <c r="O56" t="s">
+        <v>224</v>
+      </c>
+      <c r="P56" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
-      </c>
-      <c r="I57" t="s">
-        <v>191</v>
+        <v>227</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>231</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" t="s">
+        <v>234</v>
       </c>
       <c r="M58" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
-      </c>
-      <c r="F59" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" t="s">
-        <v>200</v>
-      </c>
-      <c r="H59" t="s">
-        <v>201</v>
-      </c>
-      <c r="L59" t="s">
-        <v>202</v>
-      </c>
-      <c r="N59" t="s">
-        <v>203</v>
-      </c>
-      <c r="O59" t="s">
-        <v>203</v>
-      </c>
-      <c r="P59" t="s">
-        <v>203</v>
+        <v>239</v>
+      </c>
+      <c r="M59" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>244</v>
+      </c>
+      <c r="F60" t="s">
+        <v>245</v>
+      </c>
+      <c r="G60" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60" t="s">
+        <v>248</v>
+      </c>
+      <c r="M60" t="s">
+        <v>249</v>
+      </c>
+      <c r="N60" t="s">
+        <v>250</v>
+      </c>
+      <c r="O60" t="s">
+        <v>251</v>
+      </c>
+      <c r="P60" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
-      </c>
-      <c r="F61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G61" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" t="s">
-        <v>215</v>
-      </c>
-      <c r="L61" t="s">
-        <v>216</v>
-      </c>
-      <c r="N61" t="s">
-        <v>217</v>
-      </c>
-      <c r="O61" t="s">
-        <v>217</v>
-      </c>
-      <c r="P61" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>260</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" t="s">
-        <v>226</v>
-      </c>
-      <c r="M63" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" t="s">
-        <v>230</v>
-      </c>
-      <c r="E64" t="s">
-        <v>231</v>
-      </c>
-      <c r="M64" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" t="s">
-        <v>234</v>
-      </c>
-      <c r="D65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" t="s">
-        <v>237</v>
-      </c>
-      <c r="G65" t="s">
-        <v>238</v>
-      </c>
-      <c r="H65" t="s">
-        <v>239</v>
-      </c>
-      <c r="L65" t="s">
-        <v>240</v>
-      </c>
-      <c r="M65" t="s">
-        <v>241</v>
-      </c>
-      <c r="N65" t="s">
-        <v>242</v>
-      </c>
-      <c r="O65" t="s">
-        <v>242</v>
-      </c>
-      <c r="P65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+      <c r="I65" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
-      </c>
-      <c r="C66" t="s">
-        <v>245</v>
-      </c>
-      <c r="D66" t="s">
-        <v>246</v>
-      </c>
-      <c r="E66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>264</v>
+      </c>
+      <c r="I66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" t="s">
-        <v>250</v>
-      </c>
-      <c r="E67" t="s">
-        <v>251</v>
-      </c>
-      <c r="J67" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>266</v>
+      </c>
+      <c r="I67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>268</v>
+      </c>
+      <c r="I68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>270</v>
+      </c>
+      <c r="I69" t="s">
+        <v>271</v>
+      </c>
+      <c r="M69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>274</v>
+      </c>
+      <c r="M70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="I71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="I72" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+      <c r="M72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>280</v>
+      </c>
+      <c r="M73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I74" t="s">
-        <v>262</v>
-      </c>
-      <c r="M74" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="I75" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M75" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="I76" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>286</v>
+      </c>
+      <c r="M76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="I77" t="s">
-        <v>269</v>
-      </c>
-      <c r="M77" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="I78" t="s">
-        <v>271</v>
-      </c>
-      <c r="M78" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="I79" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+      <c r="M79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="I80" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="M80" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4237,13 +4395,10 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="I81" t="s">
-        <v>277</v>
-      </c>
-      <c r="M81" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4251,10 +4406,10 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="I82" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4262,10 +4417,13 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="I83" t="s">
-        <v>281</v>
+        <v>301</v>
+      </c>
+      <c r="M83" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4273,13 +4431,13 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="I84" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="M84" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4287,252 +4445,324 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="I85" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M85" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
-      </c>
-      <c r="I86" t="s">
-        <v>288</v>
+        <v>306</v>
+      </c>
+      <c r="M86" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
-      </c>
-      <c r="I87" t="s">
-        <v>290</v>
+        <v>308</v>
+      </c>
+      <c r="C87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
-      </c>
-      <c r="I88" t="s">
-        <v>292</v>
-      </c>
-      <c r="M88" t="s">
-        <v>284</v>
+        <v>312</v>
+      </c>
+      <c r="C88" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" t="s">
+        <v>314</v>
+      </c>
+      <c r="E88" t="s">
+        <v>315</v>
+      </c>
+      <c r="F88" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" t="s">
+        <v>316</v>
+      </c>
+      <c r="H88" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
-      </c>
-      <c r="I89" t="s">
-        <v>294</v>
+        <v>318</v>
+      </c>
+      <c r="C89" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" t="s">
+        <v>321</v>
+      </c>
+      <c r="F89" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" t="s">
+        <v>322</v>
+      </c>
+      <c r="K89" t="s">
+        <v>165</v>
+      </c>
+      <c r="L89" t="s">
+        <v>166</v>
       </c>
       <c r="M89" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
-      </c>
-      <c r="I90" t="s">
-        <v>296</v>
+        <v>324</v>
+      </c>
+      <c r="C90" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" t="s">
+        <v>326</v>
+      </c>
+      <c r="E90" t="s">
+        <v>327</v>
+      </c>
+      <c r="F90" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" t="s">
+        <v>328</v>
+      </c>
+      <c r="H90" t="s">
+        <v>329</v>
+      </c>
+      <c r="L90" t="s">
+        <v>330</v>
       </c>
       <c r="M90" t="s">
-        <v>284</v>
+        <v>331</v>
+      </c>
+      <c r="N90" t="s">
+        <v>177</v>
+      </c>
+      <c r="O90" t="s">
+        <v>178</v>
+      </c>
+      <c r="P90" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>332</v>
+      </c>
+      <c r="I91" t="s">
+        <v>333</v>
       </c>
       <c r="M91" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
-      </c>
-      <c r="C92" t="s">
-        <v>300</v>
-      </c>
-      <c r="D92" t="s">
-        <v>301</v>
-      </c>
-      <c r="E92" t="s">
-        <v>302</v>
+        <v>334</v>
+      </c>
+      <c r="I92" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="C93" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
-      </c>
-      <c r="F93" t="s">
-        <v>152</v>
-      </c>
-      <c r="G93" t="s">
-        <v>153</v>
-      </c>
-      <c r="H93" t="s">
-        <v>307</v>
+        <v>339</v>
+      </c>
+      <c r="M93" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="D94" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="E94" t="s">
-        <v>311</v>
-      </c>
-      <c r="F94" t="s">
-        <v>160</v>
-      </c>
-      <c r="G94" t="s">
-        <v>161</v>
-      </c>
-      <c r="H94" t="s">
-        <v>162</v>
-      </c>
-      <c r="K94" t="s">
-        <v>163</v>
-      </c>
-      <c r="L94" t="s">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="M94" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="G95" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="H95" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="L95" t="s">
-        <v>318</v>
-      </c>
-      <c r="M95" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="N95" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="O95" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="P95" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
-      </c>
-      <c r="I96" t="s">
-        <v>321</v>
+        <v>352</v>
+      </c>
+      <c r="C96" t="s">
+        <v>353</v>
+      </c>
+      <c r="D96" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96" t="s">
+        <v>355</v>
       </c>
       <c r="M96" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
-      </c>
-      <c r="I97" t="s">
-        <v>323</v>
+        <v>357</v>
+      </c>
+      <c r="C97" t="s">
+        <v>358</v>
+      </c>
+      <c r="D97" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+      <c r="H97" t="s">
+        <v>362</v>
+      </c>
+      <c r="L97" t="s">
+        <v>222</v>
+      </c>
+      <c r="N97" t="s">
+        <v>223</v>
+      </c>
+      <c r="O97" t="s">
+        <v>224</v>
+      </c>
+      <c r="P97" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="D98" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M98" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4540,175 +4770,115 @@
         <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E99" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M99" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="E100" t="s">
-        <v>337</v>
-      </c>
-      <c r="F100" t="s">
-        <v>199</v>
-      </c>
-      <c r="G100" t="s">
-        <v>200</v>
-      </c>
-      <c r="H100" t="s">
-        <v>201</v>
-      </c>
-      <c r="L100" t="s">
-        <v>202</v>
-      </c>
-      <c r="N100" t="s">
-        <v>203</v>
-      </c>
-      <c r="O100" t="s">
-        <v>203</v>
-      </c>
-      <c r="P100" t="s">
-        <v>203</v>
+        <v>374</v>
+      </c>
+      <c r="M100" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
-      </c>
-      <c r="C101" t="s">
-        <v>339</v>
-      </c>
-      <c r="D101" t="s">
-        <v>340</v>
-      </c>
-      <c r="E101" t="s">
-        <v>341</v>
-      </c>
-      <c r="M101" t="s">
-        <v>342</v>
+        <v>376</v>
+      </c>
+      <c r="I101" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" t="s">
-        <v>344</v>
-      </c>
-      <c r="D102" t="s">
-        <v>345</v>
-      </c>
-      <c r="E102" t="s">
-        <v>346</v>
-      </c>
-      <c r="F102" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" t="s">
-        <v>214</v>
-      </c>
-      <c r="H102" t="s">
-        <v>215</v>
-      </c>
-      <c r="L102" t="s">
-        <v>216</v>
-      </c>
-      <c r="N102" t="s">
-        <v>217</v>
-      </c>
-      <c r="O102" t="s">
-        <v>217</v>
-      </c>
-      <c r="P102" t="s">
-        <v>217</v>
+        <v>378</v>
+      </c>
+      <c r="I102" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="E103" t="s">
-        <v>350</v>
+        <v>383</v>
+      </c>
+      <c r="L103" t="s">
+        <v>248</v>
       </c>
       <c r="M103" t="s">
-        <v>351</v>
+        <v>384</v>
+      </c>
+      <c r="N103" t="s">
+        <v>385</v>
+      </c>
+      <c r="O103" t="s">
+        <v>251</v>
+      </c>
+      <c r="P103" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
-      </c>
-      <c r="C104" t="s">
-        <v>224</v>
-      </c>
-      <c r="D104" t="s">
-        <v>225</v>
-      </c>
-      <c r="E104" t="s">
-        <v>353</v>
-      </c>
-      <c r="M104" t="s">
-        <v>354</v>
+        <v>386</v>
+      </c>
+      <c r="I104" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>355</v>
-      </c>
-      <c r="C105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D105" t="s">
-        <v>356</v>
-      </c>
-      <c r="E105" t="s">
-        <v>231</v>
-      </c>
-      <c r="M105" t="s">
-        <v>357</v>
+        <v>388</v>
+      </c>
+      <c r="I105" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4716,10 +4886,10 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="I106" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4727,42 +4897,21 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="I107" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>362</v>
-      </c>
-      <c r="C108" t="s">
-        <v>363</v>
-      </c>
-      <c r="D108" t="s">
-        <v>364</v>
-      </c>
-      <c r="E108" t="s">
-        <v>365</v>
-      </c>
-      <c r="L108" t="s">
-        <v>240</v>
-      </c>
-      <c r="M108" t="s">
-        <v>366</v>
-      </c>
-      <c r="N108" t="s">
-        <v>242</v>
-      </c>
-      <c r="O108" t="s">
-        <v>243</v>
-      </c>
-      <c r="P108" t="s">
-        <v>242</v>
+        <v>394</v>
+      </c>
+      <c r="I108" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -4770,248 +4919,329 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="I109" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
-      </c>
-      <c r="I110" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>371</v>
-      </c>
-      <c r="I111" t="s">
-        <v>372</v>
+        <v>398</v>
+      </c>
+      <c r="M111" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>373</v>
-      </c>
-      <c r="I112" t="s">
-        <v>374</v>
+        <v>400</v>
+      </c>
+      <c r="C112" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" t="s">
+        <v>401</v>
+      </c>
+      <c r="E112" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>375</v>
-      </c>
-      <c r="I113" t="s">
-        <v>376</v>
+        <v>403</v>
+      </c>
+      <c r="C113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" t="s">
+        <v>404</v>
+      </c>
+      <c r="E113" t="s">
+        <v>405</v>
+      </c>
+      <c r="F113" t="s">
+        <v>154</v>
+      </c>
+      <c r="G113" t="s">
+        <v>155</v>
+      </c>
+      <c r="H113" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>377</v>
-      </c>
-      <c r="I114" t="s">
-        <v>378</v>
+        <v>407</v>
+      </c>
+      <c r="C114" t="s">
+        <v>408</v>
+      </c>
+      <c r="D114" t="s">
+        <v>409</v>
+      </c>
+      <c r="E114" t="s">
+        <v>410</v>
+      </c>
+      <c r="F114" t="s">
+        <v>162</v>
+      </c>
+      <c r="G114" t="s">
+        <v>163</v>
+      </c>
+      <c r="H114" t="s">
+        <v>322</v>
+      </c>
+      <c r="K114" t="s">
+        <v>165</v>
+      </c>
+      <c r="L114" t="s">
+        <v>166</v>
+      </c>
+      <c r="M114" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>412</v>
+      </c>
+      <c r="C115" t="s">
+        <v>325</v>
+      </c>
+      <c r="D115" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" t="s">
+        <v>413</v>
+      </c>
+      <c r="F115" t="s">
+        <v>172</v>
+      </c>
+      <c r="G115" t="s">
+        <v>414</v>
+      </c>
+      <c r="H115" t="s">
+        <v>415</v>
+      </c>
+      <c r="L115" t="s">
+        <v>330</v>
+      </c>
+      <c r="M115" t="s">
+        <v>416</v>
+      </c>
+      <c r="N115" t="s">
+        <v>177</v>
+      </c>
+      <c r="O115" t="s">
+        <v>178</v>
+      </c>
+      <c r="P115" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>379</v>
+        <v>417</v>
+      </c>
+      <c r="I116" t="s">
+        <v>418</v>
       </c>
       <c r="M116" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
-      </c>
-      <c r="C117" t="s">
-        <v>300</v>
-      </c>
-      <c r="D117" t="s">
-        <v>382</v>
-      </c>
-      <c r="E117" t="s">
-        <v>302</v>
+        <v>419</v>
+      </c>
+      <c r="I117" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="E118" t="s">
-        <v>385</v>
-      </c>
-      <c r="F118" t="s">
-        <v>152</v>
-      </c>
-      <c r="G118" t="s">
-        <v>153</v>
-      </c>
-      <c r="H118" t="s">
-        <v>154</v>
+        <v>423</v>
+      </c>
+      <c r="M118" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="C119" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="E119" t="s">
-        <v>389</v>
-      </c>
-      <c r="F119" t="s">
-        <v>160</v>
-      </c>
-      <c r="G119" t="s">
-        <v>161</v>
-      </c>
-      <c r="H119" t="s">
-        <v>162</v>
-      </c>
-      <c r="K119" t="s">
-        <v>163</v>
-      </c>
-      <c r="L119" t="s">
-        <v>164</v>
+        <v>428</v>
       </c>
       <c r="M119" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="C120" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="G120" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="H120" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="L120" t="s">
-        <v>318</v>
-      </c>
-      <c r="M120" t="s">
-        <v>394</v>
+        <v>206</v>
       </c>
       <c r="N120" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="O120" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="P120" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
-      </c>
-      <c r="I121" t="s">
-        <v>396</v>
+        <v>433</v>
+      </c>
+      <c r="C121" t="s">
+        <v>434</v>
+      </c>
+      <c r="D121" t="s">
+        <v>435</v>
+      </c>
+      <c r="E121" t="s">
+        <v>355</v>
       </c>
       <c r="M121" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>397</v>
-      </c>
-      <c r="I122" t="s">
-        <v>398</v>
+        <v>437</v>
+      </c>
+      <c r="C122" t="s">
+        <v>358</v>
+      </c>
+      <c r="D122" t="s">
+        <v>359</v>
+      </c>
+      <c r="E122" t="s">
+        <v>360</v>
+      </c>
+      <c r="F122" t="s">
+        <v>219</v>
+      </c>
+      <c r="G122" t="s">
+        <v>438</v>
+      </c>
+      <c r="H122" t="s">
+        <v>439</v>
+      </c>
+      <c r="L122" t="s">
+        <v>222</v>
+      </c>
+      <c r="N122" t="s">
+        <v>223</v>
+      </c>
+      <c r="O122" t="s">
+        <v>224</v>
+      </c>
+      <c r="P122" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="D123" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="E123" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="M123" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5019,1041 +5249,919 @@
         <v>59</v>
       </c>
       <c r="B124" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="C124" t="s">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="D124" t="s">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="E124" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="M124" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C125" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="D125" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="E125" t="s">
-        <v>409</v>
-      </c>
-      <c r="F125" t="s">
-        <v>199</v>
-      </c>
-      <c r="G125" t="s">
-        <v>200</v>
-      </c>
-      <c r="H125" t="s">
-        <v>201</v>
-      </c>
-      <c r="L125" t="s">
-        <v>202</v>
-      </c>
-      <c r="N125" t="s">
-        <v>203</v>
-      </c>
-      <c r="O125" t="s">
-        <v>203</v>
-      </c>
-      <c r="P125" t="s">
-        <v>203</v>
+        <v>447</v>
+      </c>
+      <c r="M125" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>410</v>
-      </c>
-      <c r="C126" t="s">
-        <v>339</v>
-      </c>
-      <c r="D126" t="s">
-        <v>340</v>
-      </c>
-      <c r="E126" t="s">
-        <v>411</v>
-      </c>
-      <c r="M126" t="s">
-        <v>412</v>
+        <v>449</v>
+      </c>
+      <c r="I126" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>413</v>
-      </c>
-      <c r="C127" t="s">
-        <v>344</v>
-      </c>
-      <c r="D127" t="s">
-        <v>345</v>
-      </c>
-      <c r="E127" t="s">
-        <v>346</v>
-      </c>
-      <c r="F127" t="s">
-        <v>213</v>
-      </c>
-      <c r="G127" t="s">
-        <v>214</v>
-      </c>
-      <c r="H127" t="s">
-        <v>414</v>
-      </c>
-      <c r="L127" t="s">
-        <v>216</v>
-      </c>
-      <c r="N127" t="s">
-        <v>217</v>
-      </c>
-      <c r="O127" t="s">
-        <v>217</v>
-      </c>
-      <c r="P127" t="s">
-        <v>217</v>
+        <v>451</v>
+      </c>
+      <c r="I127" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="C128" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>454</v>
       </c>
       <c r="E128" t="s">
-        <v>416</v>
+        <v>455</v>
+      </c>
+      <c r="L128" t="s">
+        <v>248</v>
       </c>
       <c r="M128" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>456</v>
+      </c>
+      <c r="N128" t="s">
+        <v>385</v>
+      </c>
+      <c r="O128" t="s">
+        <v>251</v>
+      </c>
+      <c r="P128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>457</v>
+      </c>
+      <c r="I129" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>459</v>
+      </c>
+      <c r="I130" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>461</v>
+      </c>
+      <c r="I131" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>463</v>
+      </c>
+      <c r="I132" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>465</v>
+      </c>
+      <c r="I133" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>467</v>
+      </c>
+      <c r="I134" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" t="s">
+        <v>469</v>
+      </c>
+      <c r="C136" t="s">
+        <v>470</v>
+      </c>
+      <c r="D136" t="s">
+        <v>471</v>
+      </c>
+      <c r="E136" t="s">
+        <v>472</v>
+      </c>
+      <c r="M136" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" t="s">
+        <v>474</v>
+      </c>
+      <c r="C137" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" t="s">
+        <v>476</v>
+      </c>
+      <c r="E137" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" t="s">
+        <v>478</v>
+      </c>
+      <c r="G137" t="s">
+        <v>479</v>
+      </c>
+      <c r="H137" t="s">
+        <v>480</v>
+      </c>
+      <c r="M137" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" t="s">
+        <v>482</v>
+      </c>
+      <c r="C138" t="s">
+        <v>483</v>
+      </c>
+      <c r="D138" t="s">
+        <v>484</v>
+      </c>
+      <c r="E138" t="s">
+        <v>485</v>
+      </c>
+      <c r="F138" t="s">
+        <v>486</v>
+      </c>
+      <c r="G138" t="s">
+        <v>487</v>
+      </c>
+      <c r="H138" t="s">
+        <v>488</v>
+      </c>
+      <c r="M138" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" t="s">
+        <v>489</v>
+      </c>
+      <c r="C139" t="s">
+        <v>490</v>
+      </c>
+      <c r="D139" t="s">
+        <v>491</v>
+      </c>
+      <c r="E139" t="s">
+        <v>492</v>
+      </c>
+      <c r="M139" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" t="s">
+        <v>494</v>
+      </c>
+      <c r="C140" t="s">
+        <v>495</v>
+      </c>
+      <c r="D140" t="s">
+        <v>496</v>
+      </c>
+      <c r="E140" t="s">
+        <v>497</v>
+      </c>
+      <c r="M140" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141" t="s">
+        <v>498</v>
+      </c>
+      <c r="C141" t="s">
+        <v>499</v>
+      </c>
+      <c r="D141" t="s">
+        <v>500</v>
+      </c>
+      <c r="E141" t="s">
+        <v>501</v>
+      </c>
+      <c r="M141" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>502</v>
+      </c>
+      <c r="I142" t="s">
+        <v>503</v>
+      </c>
+      <c r="M142" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>505</v>
+      </c>
+      <c r="I143" t="s">
+        <v>503</v>
+      </c>
+      <c r="M143" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
         <v>59</v>
       </c>
-      <c r="B129" t="s">
-        <v>418</v>
-      </c>
-      <c r="C129" t="s">
-        <v>224</v>
-      </c>
-      <c r="D129" t="s">
-        <v>419</v>
-      </c>
-      <c r="E129" t="s">
-        <v>226</v>
-      </c>
-      <c r="M129" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" t="s">
+      <c r="B144" t="s">
+        <v>507</v>
+      </c>
+      <c r="C144" t="s">
+        <v>508</v>
+      </c>
+      <c r="D144" t="s">
+        <v>509</v>
+      </c>
+      <c r="E144" t="s">
+        <v>510</v>
+      </c>
+      <c r="F144" t="s">
+        <v>511</v>
+      </c>
+      <c r="G144" t="s">
+        <v>512</v>
+      </c>
+      <c r="H144" t="s">
+        <v>513</v>
+      </c>
+      <c r="M144" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>108</v>
+      </c>
+      <c r="B145" t="s">
+        <v>515</v>
+      </c>
+      <c r="C145" t="s">
+        <v>516</v>
+      </c>
+      <c r="D145" t="s">
+        <v>517</v>
+      </c>
+      <c r="E145" t="s">
+        <v>518</v>
+      </c>
+      <c r="M145" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
         <v>59</v>
       </c>
-      <c r="B130" t="s">
-        <v>421</v>
-      </c>
-      <c r="C130" t="s">
-        <v>229</v>
-      </c>
-      <c r="D130" t="s">
-        <v>422</v>
-      </c>
-      <c r="E130" t="s">
-        <v>231</v>
-      </c>
-      <c r="M130" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" t="s">
-        <v>424</v>
-      </c>
-      <c r="I131" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" t="s">
-        <v>426</v>
-      </c>
-      <c r="I132" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" t="s">
-        <v>428</v>
-      </c>
-      <c r="C133" t="s">
-        <v>363</v>
-      </c>
-      <c r="D133" t="s">
-        <v>429</v>
-      </c>
-      <c r="E133" t="s">
-        <v>430</v>
-      </c>
-      <c r="L133" t="s">
-        <v>240</v>
-      </c>
-      <c r="M133" t="s">
-        <v>431</v>
-      </c>
-      <c r="N133" t="s">
-        <v>242</v>
-      </c>
-      <c r="O133" t="s">
-        <v>242</v>
-      </c>
-      <c r="P133" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" t="s">
-        <v>432</v>
-      </c>
-      <c r="I134" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" t="s">
-        <v>434</v>
-      </c>
-      <c r="I135" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" t="s">
-        <v>436</v>
-      </c>
-      <c r="I136" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" t="s">
-        <v>438</v>
-      </c>
-      <c r="I137" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" t="s">
-        <v>21</v>
-      </c>
-      <c r="B138" t="s">
-        <v>440</v>
-      </c>
-      <c r="I138" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" t="s">
-        <v>21</v>
-      </c>
-      <c r="B139" t="s">
-        <v>442</v>
-      </c>
-      <c r="I139" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" t="s">
-        <v>51</v>
-      </c>
-      <c r="B140" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" t="s">
-        <v>106</v>
-      </c>
-      <c r="B141" t="s">
-        <v>444</v>
-      </c>
-      <c r="C141" t="s">
-        <v>445</v>
-      </c>
-      <c r="D141" t="s">
-        <v>446</v>
-      </c>
-      <c r="E141" t="s">
-        <v>447</v>
-      </c>
-      <c r="M141" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" t="s">
-        <v>106</v>
-      </c>
-      <c r="B142" t="s">
-        <v>449</v>
-      </c>
-      <c r="C142" t="s">
-        <v>450</v>
-      </c>
-      <c r="D142" t="s">
-        <v>451</v>
-      </c>
-      <c r="E142" t="s">
-        <v>452</v>
-      </c>
-      <c r="F142" t="s">
-        <v>453</v>
-      </c>
-      <c r="G142" t="s">
-        <v>454</v>
-      </c>
-      <c r="H142" t="s">
-        <v>455</v>
-      </c>
-      <c r="M142" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" t="s">
-        <v>106</v>
-      </c>
-      <c r="B143" t="s">
-        <v>457</v>
-      </c>
-      <c r="C143" t="s">
-        <v>788</v>
-      </c>
-      <c r="D143" t="s">
-        <v>458</v>
-      </c>
-      <c r="E143" t="s">
-        <v>459</v>
-      </c>
-      <c r="F143" t="s">
-        <v>460</v>
-      </c>
-      <c r="G143" t="s">
-        <v>461</v>
-      </c>
-      <c r="H143" t="s">
-        <v>462</v>
-      </c>
-      <c r="M143" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" t="s">
-        <v>106</v>
-      </c>
-      <c r="B144" t="s">
-        <v>463</v>
-      </c>
-      <c r="C144" t="s">
-        <v>464</v>
-      </c>
-      <c r="D144" t="s">
-        <v>465</v>
-      </c>
-      <c r="E144" t="s">
-        <v>466</v>
-      </c>
-      <c r="M144" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" t="s">
-        <v>106</v>
-      </c>
-      <c r="B145" t="s">
-        <v>468</v>
-      </c>
-      <c r="C145" t="s">
-        <v>469</v>
-      </c>
-      <c r="D145" t="s">
-        <v>470</v>
-      </c>
-      <c r="E145" t="s">
-        <v>471</v>
-      </c>
-      <c r="M145" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" t="s">
-        <v>106</v>
-      </c>
       <c r="B146" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="C146" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="D146" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="E146" t="s">
-        <v>475</v>
+        <v>522</v>
+      </c>
+      <c r="F146" t="s">
+        <v>523</v>
+      </c>
+      <c r="G146" t="s">
+        <v>524</v>
+      </c>
+      <c r="H146" t="s">
+        <v>525</v>
       </c>
       <c r="M146" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>476</v>
-      </c>
-      <c r="I147" t="s">
-        <v>477</v>
+        <v>527</v>
+      </c>
+      <c r="C147" t="s">
+        <v>528</v>
+      </c>
+      <c r="D147" t="s">
+        <v>529</v>
+      </c>
+      <c r="E147" t="s">
+        <v>530</v>
       </c>
       <c r="M147" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="I148" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="M148" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>533</v>
+      </c>
+      <c r="I149" t="s">
+        <v>503</v>
+      </c>
+      <c r="M149" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>535</v>
+      </c>
+      <c r="I150" t="s">
+        <v>503</v>
+      </c>
+      <c r="M150" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>537</v>
+      </c>
+      <c r="I151" t="s">
+        <v>503</v>
+      </c>
+      <c r="M151" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" t="s">
+        <v>539</v>
+      </c>
+      <c r="C153" t="s">
+        <v>540</v>
+      </c>
+      <c r="E153" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>543</v>
+      </c>
+      <c r="I154" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>544</v>
+      </c>
+      <c r="I155" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>546</v>
+      </c>
+      <c r="I156" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>548</v>
+      </c>
+      <c r="I157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
         <v>59</v>
       </c>
-      <c r="B149" t="s">
-        <v>481</v>
-      </c>
-      <c r="C149" t="s">
-        <v>482</v>
-      </c>
-      <c r="D149" t="s">
-        <v>483</v>
-      </c>
-      <c r="E149" t="s">
-        <v>484</v>
-      </c>
-      <c r="F149" t="s">
-        <v>485</v>
-      </c>
-      <c r="G149" t="s">
-        <v>486</v>
-      </c>
-      <c r="H149" t="s">
-        <v>487</v>
-      </c>
-      <c r="M149" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" t="s">
-        <v>106</v>
-      </c>
-      <c r="B150" t="s">
-        <v>489</v>
-      </c>
-      <c r="C150" t="s">
-        <v>490</v>
-      </c>
-      <c r="D150" t="s">
-        <v>491</v>
-      </c>
-      <c r="E150" t="s">
-        <v>492</v>
-      </c>
-      <c r="M150" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" t="s">
-        <v>59</v>
-      </c>
-      <c r="B151" t="s">
-        <v>493</v>
-      </c>
-      <c r="C151" t="s">
-        <v>494</v>
-      </c>
-      <c r="D151" t="s">
-        <v>495</v>
-      </c>
-      <c r="E151" t="s">
-        <v>496</v>
-      </c>
-      <c r="F151" t="s">
-        <v>497</v>
-      </c>
-      <c r="G151" t="s">
-        <v>498</v>
-      </c>
-      <c r="H151" t="s">
-        <v>499</v>
-      </c>
-      <c r="M151" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" t="s">
-        <v>106</v>
-      </c>
-      <c r="B152" t="s">
-        <v>501</v>
-      </c>
-      <c r="C152" t="s">
-        <v>502</v>
-      </c>
-      <c r="D152" t="s">
-        <v>503</v>
-      </c>
-      <c r="E152" t="s">
-        <v>504</v>
-      </c>
-      <c r="M152" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153" t="s">
-        <v>505</v>
-      </c>
-      <c r="I153" t="s">
-        <v>477</v>
-      </c>
-      <c r="M153" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" t="s">
-        <v>507</v>
-      </c>
-      <c r="I154" t="s">
-        <v>477</v>
-      </c>
-      <c r="M154" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" t="s">
-        <v>509</v>
-      </c>
-      <c r="I155" t="s">
-        <v>477</v>
-      </c>
-      <c r="M155" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" t="s">
-        <v>511</v>
-      </c>
-      <c r="I156" t="s">
-        <v>477</v>
-      </c>
-      <c r="M156" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" t="s">
-        <v>103</v>
-      </c>
-      <c r="B157" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" t="s">
-        <v>73</v>
-      </c>
       <c r="B158" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="C158" t="s">
-        <v>514</v>
-      </c>
-      <c r="R158" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>551</v>
+      </c>
+      <c r="D158" t="s">
+        <v>552</v>
+      </c>
+      <c r="E158" t="s">
+        <v>553</v>
+      </c>
+      <c r="M158" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B159" t="s">
-        <v>516</v>
-      </c>
-      <c r="I159" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>555</v>
+      </c>
+      <c r="C159" t="s">
+        <v>556</v>
+      </c>
+      <c r="D159" t="s">
+        <v>557</v>
+      </c>
+      <c r="E159" t="s">
+        <v>558</v>
+      </c>
+      <c r="M159" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B160" t="s">
-        <v>517</v>
-      </c>
-      <c r="I160" t="s">
-        <v>518</v>
+        <v>559</v>
+      </c>
+      <c r="C160" t="s">
+        <v>560</v>
+      </c>
+      <c r="D160" t="s">
+        <v>561</v>
+      </c>
+      <c r="E160" t="s">
+        <v>562</v>
+      </c>
+      <c r="M160" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>563</v>
       </c>
       <c r="B161" t="s">
-        <v>519</v>
-      </c>
-      <c r="I161" t="s">
-        <v>520</v>
+        <v>564</v>
+      </c>
+      <c r="C161" t="s">
+        <v>565</v>
+      </c>
+      <c r="D161" t="s">
+        <v>566</v>
+      </c>
+      <c r="E161" t="s">
+        <v>567</v>
+      </c>
+      <c r="L161" t="s">
+        <v>568</v>
+      </c>
+      <c r="M161" t="s">
+        <v>569</v>
+      </c>
+      <c r="N161" t="s">
+        <v>570</v>
+      </c>
+      <c r="O161" t="s">
+        <v>251</v>
+      </c>
+      <c r="P161" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B162" t="s">
-        <v>521</v>
-      </c>
-      <c r="I162" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>572</v>
       </c>
       <c r="B163" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="C163" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="D163" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="E163" t="s">
-        <v>526</v>
-      </c>
-      <c r="M163" t="s">
-        <v>527</v>
+        <v>576</v>
+      </c>
+      <c r="F163" t="s">
+        <v>577</v>
+      </c>
+      <c r="G163" t="s">
+        <v>578</v>
+      </c>
+      <c r="H163" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>580</v>
+      </c>
+      <c r="B164" t="s">
+        <v>581</v>
+      </c>
+      <c r="C164" t="s">
+        <v>582</v>
+      </c>
+      <c r="D164" t="s">
+        <v>583</v>
+      </c>
+      <c r="E164" t="s">
+        <v>584</v>
+      </c>
+      <c r="F164" t="s">
+        <v>585</v>
+      </c>
+      <c r="G164" t="s">
+        <v>586</v>
+      </c>
+      <c r="H164" t="s">
+        <v>587</v>
+      </c>
+      <c r="J164" t="s">
+        <v>29</v>
+      </c>
+      <c r="M164" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>106</v>
+        <v>589</v>
       </c>
       <c r="B165" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="C165" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="D165" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="E165" t="s">
-        <v>531</v>
+        <v>584</v>
+      </c>
+      <c r="F165" t="s">
+        <v>585</v>
+      </c>
+      <c r="G165" t="s">
+        <v>586</v>
+      </c>
+      <c r="H165" t="s">
+        <v>587</v>
       </c>
       <c r="M165" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>592</v>
       </c>
       <c r="B166" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="C166" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="D166" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="E166" t="s">
-        <v>535</v>
+        <v>584</v>
+      </c>
+      <c r="G166" t="s">
+        <v>586</v>
+      </c>
+      <c r="J166" t="s">
+        <v>29</v>
       </c>
       <c r="M166" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>536</v>
+        <v>59</v>
       </c>
       <c r="B167" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="C167" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="D167" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="E167" t="s">
-        <v>540</v>
-      </c>
-      <c r="L167" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="M167" t="s">
-        <v>542</v>
-      </c>
-      <c r="N167" t="s">
-        <v>543</v>
-      </c>
-      <c r="O167" t="s">
-        <v>543</v>
-      </c>
-      <c r="P167" t="s">
-        <v>543</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>600</v>
+      </c>
+      <c r="C168" t="s">
+        <v>601</v>
+      </c>
+      <c r="D168" t="s">
+        <v>602</v>
+      </c>
+      <c r="E168" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>513</v>
+        <v>604</v>
+      </c>
+      <c r="I170" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>544</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>545</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>550</v>
+        <v>606</v>
+      </c>
+      <c r="I171" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>551</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>552</v>
-      </c>
-      <c r="C172" t="s">
-        <v>553</v>
-      </c>
-      <c r="D172" t="s">
-        <v>554</v>
-      </c>
-      <c r="E172" t="s">
-        <v>555</v>
-      </c>
-      <c r="F172" t="s">
-        <v>556</v>
-      </c>
-      <c r="G172" t="s">
-        <v>557</v>
-      </c>
-      <c r="H172" t="s">
-        <v>558</v>
-      </c>
-      <c r="J172" t="s">
-        <v>29</v>
-      </c>
-      <c r="M172" t="s">
-        <v>559</v>
+        <v>608</v>
+      </c>
+      <c r="I172" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>560</v>
+        <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>561</v>
-      </c>
-      <c r="C173" t="s">
-        <v>553</v>
-      </c>
-      <c r="D173" t="s">
-        <v>554</v>
-      </c>
-      <c r="E173" t="s">
-        <v>555</v>
-      </c>
-      <c r="F173" t="s">
-        <v>556</v>
-      </c>
-      <c r="G173" t="s">
-        <v>557</v>
-      </c>
-      <c r="H173" t="s">
-        <v>558</v>
-      </c>
-      <c r="M173" t="s">
-        <v>562</v>
+        <v>610</v>
+      </c>
+      <c r="I173" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>563</v>
+        <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>564</v>
-      </c>
-      <c r="C174" t="s">
-        <v>553</v>
-      </c>
-      <c r="D174" t="s">
-        <v>554</v>
-      </c>
-      <c r="E174" t="s">
-        <v>555</v>
-      </c>
-      <c r="G174" t="s">
-        <v>557</v>
-      </c>
-      <c r="H174" t="s">
-        <v>558</v>
-      </c>
-      <c r="J174" t="s">
-        <v>29</v>
-      </c>
-      <c r="M174" t="s">
-        <v>565</v>
+        <v>612</v>
+      </c>
+      <c r="I174" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>566</v>
-      </c>
-      <c r="C175" t="s">
-        <v>567</v>
-      </c>
-      <c r="D175" t="s">
-        <v>568</v>
-      </c>
-      <c r="E175" t="s">
-        <v>569</v>
-      </c>
-      <c r="M175" t="s">
-        <v>570</v>
+        <v>614</v>
+      </c>
+      <c r="I175" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>571</v>
-      </c>
-      <c r="C176" t="s">
-        <v>572</v>
-      </c>
-      <c r="D176" t="s">
-        <v>573</v>
-      </c>
-      <c r="E176" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>616</v>
+      </c>
+      <c r="I176" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>618</v>
+      </c>
+      <c r="I177" t="s">
+        <v>619</v>
+      </c>
+      <c r="R177" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="I178" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" t="s">
-        <v>21</v>
-      </c>
-      <c r="B180" t="s">
-        <v>577</v>
-      </c>
-      <c r="I180" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" t="s">
-        <v>579</v>
-      </c>
-      <c r="I181" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" t="s">
-        <v>21</v>
-      </c>
-      <c r="B182" t="s">
-        <v>581</v>
-      </c>
-      <c r="I182" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" t="s">
-        <v>21</v>
-      </c>
-      <c r="B183" t="s">
-        <v>583</v>
-      </c>
-      <c r="I183" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" t="s">
-        <v>21</v>
-      </c>
-      <c r="B184" t="s">
-        <v>585</v>
-      </c>
-      <c r="I184" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" t="s">
-        <v>21</v>
-      </c>
-      <c r="B185" t="s">
-        <v>587</v>
-      </c>
-      <c r="I185" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" t="s">
-        <v>21</v>
-      </c>
-      <c r="B186" t="s">
-        <v>589</v>
-      </c>
-      <c r="I186" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>587</v>
+        <v>621</v>
+      </c>
+      <c r="R178" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -6071,7 +6179,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6088,53 +6196,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="E2" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C3" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6142,16 +6250,16 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="E5" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6159,16 +6267,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C6" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="E6" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6176,985 +6284,985 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="D7" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="E7" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="E8" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C9" t="s">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="D9" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="E9" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C10" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="D10" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="E10" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B11" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="C11" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="D11" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="E11" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B12" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="C12" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="D12" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="E12" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B13" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C13" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="E13" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B14" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="C14" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="E14" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B15" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
       <c r="E15" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B16" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="C16" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B17" t="s">
-        <v>637</v>
+        <v>668</v>
       </c>
       <c r="C17" t="s">
-        <v>638</v>
+        <v>669</v>
       </c>
       <c r="D17" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="E17" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B18" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="C18" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="E18" t="s">
-        <v>642</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B19" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="E19" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B20" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="C20" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="D20" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="E20" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B21" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="C21" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="D21" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="E21" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B22" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="C22" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="D22" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="E22" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B23" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="C23" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="D23" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="E23" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B24" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="C24" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="D24" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="E24" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B25" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="C25" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="D25" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="E25" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B26" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="C26" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="D26" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="E26" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B27" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="C27" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="D27" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="E27" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B28" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="D28" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="E28" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B29" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="C29" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="D29" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="E29" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="C30" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="D30" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="E30" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B31" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="C31" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="E31" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B32" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="C32" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="D32" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="E32" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B33" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="C33" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="D33" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="E33" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B34" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="C34" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="E34" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B35" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="C35" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="D35" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="E35" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B36" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="C36" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="D36" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="E36" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B37" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="C37" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="D37" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="E37" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B38" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="C38" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="D38" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="E38" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B39" t="s">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="C39" t="s">
-        <v>704</v>
+        <v>739</v>
       </c>
       <c r="D39" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="E39" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B40" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
       <c r="C40" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
       <c r="D40" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="E40" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B41" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="C41" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="D41" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="E41" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="B42" t="s">
-        <v>713</v>
+        <v>748</v>
       </c>
       <c r="C42" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="D42" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="E42" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="B43" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="C43" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="D43" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="E43" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="B44" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="C44" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="D44" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="E44" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="B45" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="C45" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="D45" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="E45" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="B46" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="C46" t="s">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="D46" t="s">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="E46" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="B47" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="C47" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="D47" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
       <c r="E47" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B48" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C48" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="D48" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="E48" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B49" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C49" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="D49" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="E49" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B50" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C50" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="D50" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="E50" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B51" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="C51" t="s">
-        <v>742</v>
+        <v>777</v>
       </c>
       <c r="D51" t="s">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="E51" t="s">
-        <v>744</v>
+        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="B52" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C52" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="D52" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="E52" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="B53" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C53" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="D53" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
       <c r="E53" t="s">
-        <v>748</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="B54" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C54" t="s">
-        <v>749</v>
+        <v>784</v>
       </c>
       <c r="D54" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="E54" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="B55" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C55" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="D55" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="E55" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="B56" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C56" t="s">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="D56" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="E56" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="B57" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C57" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="D57" t="s">
-        <v>757</v>
+        <v>792</v>
       </c>
       <c r="E57" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="B58" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C58" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="D58" t="s">
-        <v>761</v>
+        <v>796</v>
       </c>
       <c r="E58" t="s">
-        <v>762</v>
+        <v>797</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="B59" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="C59" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="D59" t="s">
-        <v>764</v>
+        <v>799</v>
       </c>
       <c r="E59" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="B60" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="C60" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="D60" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="E60" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="B61" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="C61" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="D61" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="E61" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="B62" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C62" t="s">
-        <v>774</v>
+        <v>809</v>
       </c>
       <c r="D62" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="E62" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="B63" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C63" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="D63" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="E63" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="B64" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="C64" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="D64" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="E64" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -7172,36 +7280,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="B1" t="s">
-        <v>780</v>
+        <v>815</v>
       </c>
       <c r="C1" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="D1" t="s">
-        <v>782</v>
+        <v>817</v>
       </c>
       <c r="E1" t="s">
-        <v>783</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="C2" t="s">
-        <v>785</v>
+        <v>820</v>
       </c>
       <c r="D2" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
